--- a/MF Faqs.xlsx
+++ b/MF Faqs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Education\Colleges\Internship\DCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973592F7-A409-425D-A305-30DD714514D4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72C2DC5-47BD-42E8-81EE-888FE94271A5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5340" xr2:uid="{A1C71BCD-9E5F-46CF-A8B8-BDDE8D2BA834}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="690">
   <si>
     <t>A minimum amount of Rs 1000 is required for SIP insurance investment.</t>
   </si>
@@ -1845,6 +1845,923 @@
   </si>
   <si>
     <t>Is UTI Mutual Fund a good investment?</t>
+  </si>
+  <si>
+    <t>What’s the procedure to start investing in Mutual Funds after the KYC Process?</t>
+  </si>
+  <si>
+    <t>All investors who seek to invest in Mutual Funds (including Guardian of a minor applicant or a Power of Attorney holder) irrespective of the amount of investment. Once the KYC is duly completed in all regards, the investor needs to produce a copy of the acknowledgement when investing for the first time with a Mutual Fund. Investors must attach their KYC Acknowledgement along with the Investment Application Form or Transaction Slip while investing for the first time in a mutual fund.</t>
+  </si>
+  <si>
+    <t>How to add/cancel/modify nominee?</t>
+  </si>
+  <si>
+    <t>You can add/cancel/modify nominee at any time before you redeem your mutual fund units by filling up the prescribed request form to your AMC.</t>
+  </si>
+  <si>
+    <t>Is there any minimum lock-in period for my units?</t>
+  </si>
+  <si>
+    <t>There is no lock in period in the case of open-ended funds. But for tax saving funds, a minimum lock in period applies. For saving schemes under section U/s 88 and U/s 54EA, there is a 3 years minimum lock in period. For section U/s 54EB, it is 7 years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is Flex SIP? </t>
+  </si>
+  <si>
+    <t>Flex SIP is a facility whereby investors can invest at predetermined intervals in the eligible schemes of the Fund, higher amount(s) determined by a formula linked to value of investments, to take advantage of market movements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the advantages of opting for Flex SIP? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+HDFC Flex SIP, along with inculcating the habit of disciplined investing in a convenient way, also aims to purchase more units when markets are down which generally results in higher wealth as compared to Normal SIP at the end of the Flex SIP tenure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are there any investment limits under Flex SIP? </t>
+  </si>
+  <si>
+    <t>Yes. The first instalment amount mentioned shall not exceed Rs. 1 Lakh. 
+At any given point in time, the subsequent instalment amount determined by the formula shall be capped at 2 times the first Flex SIP instalment amount. Effectively, the subsequent instalments amount i.e. instalments after the 1st installment shall be less than Rs. 2 lakh in any market scenario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under what circumstances will Flex SIP cease? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the following circumstances, the Flex SIP facility may cease and SIP may be processed for the fixed installment amount specified by the unitholder at the time of enrolment: 
+(a) If there is a reversal of any SIP installment due to insufficient balance or technical reasons; 
+(b) If there is a redemption/ switch-out of any units allotted under Flex SIP. (Units under a Scheme are redeemed on First In First Out (FIFO) basis, irrespective of the mode of allotment). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which are the Eligible schemes under Flex SIP? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flex SIP facility is currently available for all open ended equity schemes and balanced schemes of HDFC Mutual Fund. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can I invest in dividend option under Flex SIP? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. You can only invest in growth option. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can I extend the tenure for Flex SIP? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, this facility is not available. The tenure needs to be chosen at the beginning of Flex SIP. However, an investor can to start a new Flex SIP at any point in time. </t>
+  </si>
+  <si>
+    <t>What is Instant Redemption?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instant Redemption is a facility which allows you to place a redemption request in the specified scheme and have the amount credited into your registered bank account using the IMPS facility. </t>
+  </si>
+  <si>
+    <t>What are the prerequisites required for placing a successful Instant Redemption request?</t>
+  </si>
+  <si>
+    <t>a) This facility is available only for Resident Individuals
+b) The investor should have the complete CBS (Core Banking System) account number registered in the folio along with IFSC code
+c) The Investor’s bank should be Immediate payment service (IMPS) enabled.
+d) No Change of Bank request has been placed in the folio for the past 7 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Can I place a Physical request for Instant Redemption?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. A physical request cannot be placed for Instant Redemption. </t>
+  </si>
+  <si>
+    <t>What are the maximum and minimum amounts for which an Instant Redemption request can be placed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The maximum per day amount would be Rs 50,000 or 90% of the valuation (clear units only) held by the investor at a PAN level, whichever is lower. The minimum amount is Rs 5000/- </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> When would this limit get reset each day?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This limit would get reset at 12.00 AM each day. </t>
+  </si>
+  <si>
+    <t>Can an Instant Redemption request once placed, be cancelled?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancellation of an Instant Redemption is not possible since the payout for this happens near instantaneously. </t>
+  </si>
+  <si>
+    <t>What is HDFC Housing Opportunities Fund - Series 1?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDFC Housing Opportunities Fund – Series 1 is a close ended thematic equity fund with an endeavour to provide long-term capital appreciation by investing predominantly in equity and equity related instruments of entities engaged in and/or expected to benefit from the growth in housing and its allied business activities. </t>
+  </si>
+  <si>
+    <t>What is CKYC?</t>
+  </si>
+  <si>
+    <t>CKYC refers to central KYC (Know Your Customer), a new initiative by Government of India. The aim of this initiative is to have a structure in place which allows investors to do their KYC only once before interacting with various entities across the financial sector. CKYC will be managed by CERSAI (Central Registry of Securitization Asset Reconstruction and Security Interest of India), authorized by Government of India to function as Central KYC Registry (CKYCR). The objective of CKYCR is to reduce the burden of producing KYC documents and getting those verified every time when the investor enters into a new relationship with a financial entity. Thus, CKYCR will act as centralized repository of KYC records of investors in the financial sector with uniform KYC norms and inter-usability of the KYC records across the sector.</t>
+  </si>
+  <si>
+    <t>How can I complete my KYC formalities ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You may submit the CKYC form at any of our branches or you may choose to complete your KYC formalities online using the facility provided on our website. </t>
+  </si>
+  <si>
+    <t>What is the difference between KYC and eKYC?</t>
+  </si>
+  <si>
+    <t>KYC - is the process in the Mutual Fund industry whereby the identity of an investor is verified based on written details submitted on a form, supplemented by an in person verification process done by the ISC personnel. Once the verification is done successfully, the relevant investor data is entered into the KRA Registration Agency (KRA) system and subsequently uploaded to their database. 
+eKYC – is KYC done with the help of a investor’s Aadhaar number. While doing the eKYC, the authentication of the investor’s identity can be done: 
+(a) Via OTP (Limits investments to Rs 50,000 per year per mutual funds and mandates investments via the online electronic mode) 
+(b) Via Biometrics (No limits on the investment amount here unless those specifically imposed by the scheme / Fund House) 
+This data is uploaded into the records of the KRA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Is PAN mandatory?</t>
+  </si>
+  <si>
+    <t>a) Investors who have a valid Permanent Account Number (PAN) need to provide the same for CKYC compliance. 
+b) Investors, who do not have a PAN, need to submit alternate documents (refer CKYC form for details). However, such category of investors can invest (including SIPs) upto Rs. 50,000 only per Mutual Fund in a rolling 12 month period or in a financial year i.e. April to March. 
+c) Investors exempt from submission of a PAN:
+i) Transactions undertaken on behalf of Central/State Government, by officials appointed by Courts, e.g., Official liquidator, Court receiver, etc.
+ii) Investors residing in the state of Sikkim</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What are the documents to be submitted for completion of CKYC formalities?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You need to submit the following documents: 
+a) Duly filled and signed CYC / Old KYC form + Supplementary CKYC form 
+b) One proof of Identity (self-attested copy) 
+c) One proof of Address (self-attested copy) 
+d) One photograph incase of CKYC form. </t>
+  </si>
+  <si>
+    <t>Within how many days will I receive the KIN?</t>
+  </si>
+  <si>
+    <t>The KIN will be allotted by CERSAI within 2 – 3 working days</t>
+  </si>
+  <si>
+    <t>What is HDFC Retirement Savings Fund?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDFC Retirement Savings Fund, an open ended notified tax savings cum pension scheme with no assured returns, is a mutual fund vehicle targeting retirement corpus for an investor. The fund has three investment plans, namely: 
+Equity Plan: The net assets of the Investment Plan will be primarily invested in Equity and Equity related instruments. Under normal circumstances, the equity exposure is expected to be between 80% to 100%. The fund will follow a multi cap investment strategy with a focused approach to long term investing. 
+Hybrid Equity Plan: The net assets of the Investment Plan will be primarily invested in Equity and Equity related instruments. Under normal circumstances, the equity exposure is expected to be between 60% to 80%. The AMC will also invest the net assets of the Investment Plan in Debt/ Money market instruments with an objective of generating long term returns and maintaining risk under control. 
+Hybrid Debt Plan: The net assets of the investment plan will be primarily invested in debt and money market instruments. Under normal circumstances, the exposure to debt and money market instruments is expected to be 70% to 95% and the equity exposure is expected to be between 5% to 30%. The investment plan will retain the flexibility to invest across all the debt and money market instruments of various maturities. 
+The above plans differ in the varying degree of equity and debt allocation and are suited for investors of different age group and risk profiles. </t>
+  </si>
+  <si>
+    <t>Can the Joint holders avail tax benefit?</t>
+  </si>
+  <si>
+    <t>No, only the first unit holder can avail tax benefit under the scheme</t>
+  </si>
+  <si>
+    <t>What is the minimum SIP Amount for investment in HDFC Retirement Savings Fund?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIP offers investors two Plans viz. ‘Monthly Systematic Investment Plan (MSIP)’ and ‘Quarterly Systematic Investment Plan (QSIP)’. Minimum amount per SIP instalment is Rs.500 and in multiples of Rs.100 thereafter under MSIP and Rs.1,500 and in multiples of Rs.100 thereafter under QSIP. </t>
+  </si>
+  <si>
+    <t>How can I purchase units of HDFC Mutual Fund?</t>
+  </si>
+  <si>
+    <t>There are three options for purchasing units of our Mutual Fund: 
+Directly by submitting physical transactions to the fund house,
+Through the stock exchange platform
+Through internet/ online transacting facility. Click here to invest online</t>
+  </si>
+  <si>
+    <t>What is the procedure for redemption?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In case you wish to redeem from any of the open ended schemes of HDFC Mutual Fund; you may do so on any business day. You need to complete a transaction slip, which you can download from our website or detach from the end of your account statement. The Application can be submitted at any of our official points of acceptance of transactions. </t>
+  </si>
+  <si>
+    <t>How much money will I receive if I redeem my money today?</t>
+  </si>
+  <si>
+    <t>You can calculate the approximate value of your investments by multiplying the number of units you hold in scheme with the latest NAV of that particular scheme. But the same is subject to: 
+i) Exit load, if any
+ii) 'Applicable NAV' i.e., the NAV that depends on the day &amp; time when that you submit your redemption request. For example if you are submitting your redemption before the cut-off time on a 'Business Day' as defined in the Scheme Information Document you are entitled to the NAV of the same day.
+iii) Securities Transaction Tax (STT) ,if applicable</t>
+  </si>
+  <si>
+    <t>How will I receive my redemption proceeds?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The redemption proceeds are paid via any of the following modes depending on the investor’s bank, completeness &amp; accuracy of the bank details provided by the investor &amp; his location: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Is there any load on switching?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A switch from one scheme to the other is treated as redemption from the scheme from where it is switched out &amp; a purchase into the scheme into which it is being switched. Thus you will be liable for any 'applicable' entry load or exit load. How do I apply for a Systematic Investment Plan (SIP)? 
+First time investors can attach, along with the mutual fund application form, an SIP Enrolment form. The SIP enrollment form is usually submitted along with an auto-debit form. First time resident individual investors with mode of holding as single, can start directly create a folio and start investing online
+on HDFCMFOnline and HDFCMFMobile, refer to section on Frequently Asked Questions (FAQs) or contact us.
+Existing investors can fill the SIP enrollment form mentioning the folio number and submit it along with the auto-debit form. If you are an existing investor with online transaction facility, you can logon to www.hdfcfund.com and apply for an SIP. </t>
+  </si>
+  <si>
+    <t>What is HDFC Swing STP?</t>
+  </si>
+  <si>
+    <t>Swing STP is a facility wherein unit holder(s) can opt to transfer an amount at regular intervals from designated open-ended Scheme(s) of HDFC Mutual Fund ("Transferor Scheme") to the Growth Option of designated open-ended Scheme(s) of HDFC Mutual Fund ("Transferee Scheme") including a feature of Reverse Transfer from Transferee Scheme into the Transferor Scheme, in order to achieve the Target Market Value on each transfer date in the Transferee Scheme, subject to the terms and conditions of Swing STP.</t>
+  </si>
+  <si>
+    <t>What is the difference between HDFC Swing STP and HDFC STP?</t>
+  </si>
+  <si>
+    <t>HDFC Swing STP works on the principle of value cost averaging whereas HDFC STP works on the concept of rupee cost averaging. Rupee cost averaging works on the principle of investing a fixed sum of money at regular intervals irrespective of the market levels. On the other hand under Value Cost Averaging varying amounts are invested at regular intervals depending on the market fluctuations to arrive at a specific target portfolio value at each transfer date.</t>
+  </si>
+  <si>
+    <t>What is the formula for calculation of the amount to be transferred after the first instalment?</t>
+  </si>
+  <si>
+    <t>From the second Swing STP installment onwards, the transfer amount may be higher/lower than the first installment amount, as derived by the formula stated below:
+(First installment amount X Number of installments including the current installment) - Market Value of the investments through Swing STP in the Transferee Scheme on the date of transfer.
+In case the amounts (as specified above) to be transferred are not available in the Transferor Scheme in the unit holder?s account, the residual amount will be transferred to the Transferee Scheme and Swing STP will be closed</t>
+  </si>
+  <si>
+    <t>What is the transaction charge for direct investments?</t>
+  </si>
+  <si>
+    <t>Transaction charges are not applicable for direct investments.</t>
+  </si>
+  <si>
+    <t>I wish to switch my existing investment into a new scheme. Will transaction charges be payable by me?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. Transaction charges are applicable only for purchase transaction / SIP registration. Hence, you don't have to pay transaction charges for switches. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will transaction charges be applicable for all schemes? </t>
+  </si>
+  <si>
+    <t>I wish to redeem my existing investments. Do I have to pay transaction charges?</t>
+  </si>
+  <si>
+    <t>No. Transaction charges are payable only on purchase transaction / SIP registration.</t>
+  </si>
+  <si>
+    <t>I have invested earlier in HDFC Mutual Fund. Do I still have to pay transaction charges?</t>
+  </si>
+  <si>
+    <t>Yes. If the purchase transaction / SIP registration of  10,000 and above is processed through a distributor and the distributor has opted to receive transaction charges, transaction charges will have to be paid by you even though you are an existing investor.</t>
+  </si>
+  <si>
+    <t>I am a new investor and wish to invest in 3 mutual funds on the same day. Will I be considered a new investor in all 3 mutual funds?</t>
+  </si>
+  <si>
+    <t>Yes. You will be considered a new investor in all 3 mutual funds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can I hold units in my demat account in all schemes? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I wish to redeem the units which are in my demat account. How can I do that? </t>
+  </si>
+  <si>
+    <t>For redeeming units from your demat account, you have to approach your Depository Participant (DP) / broker for stock exchange transactions for redeeming them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can I switch units from HDFC Equity Fund which are in my demat account to any other scheme? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, you can switch units held in your demat into another scheme. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If no broker code is mentioned on the transaction slip would the transaction be treated as 'DIRECT'? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the Turn Around Time (TAT) for change of broker code request to be updated? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A change of broker code request would take approximately one week to get updated. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can I submit a change of broker code request to CAMS directly? </t>
+  </si>
+  <si>
+    <t>Yes, as long as it is authorized by the Unitholder(s), depending on the mode of holding. However, the procedure would be different for the Channel Distributors. In such case, the documents have to be routed through the Channel Distributor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If I invest directly, can I later add a broker? </t>
+  </si>
+  <si>
+    <t>Yes. A written request has to be submitted for change of broker code signed by the Unitholder(s), depending on the mode of holding. However, the procedure would be different for the Channel Distributors. In such case, the documents have to be routed through the Channel Distributor</t>
+  </si>
+  <si>
+    <t>After I change my broker code to 'DIRECT', would my previous broker continue to receive the trail commission?</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>What is a Consolidated Account statement (CAS)?</t>
+  </si>
+  <si>
+    <t>Consolidated Account Statement is a single account statement that reflects alltransactions of a unit holder in allfolios across allschemes of allmutual funds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When will I start receiving the CAS? </t>
+  </si>
+  <si>
+    <t>The first CAS statement shall be sent in the month of November 2011 covering all your transactions in October 2011. Thus, CAS will be sent every monthgoing forward, for your transactions during a calendar month and dispatched to you before the 10th of a succeeding month.</t>
+  </si>
+  <si>
+    <t>Is there a charge / fee for receiving the CAS?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAS is absolutely free of charge to a unit holder </t>
+  </si>
+  <si>
+    <t>If I have updated my address, will it be included in CAS?</t>
+  </si>
+  <si>
+    <t>Address changes, if any, will reflect in your statement and CAS will be sent to the new address. However, please note that the address available with our Registrar and Transfer Agent as on the date of consolidating your statement will be considered for mailing. In the event of the address being changed at any other time, your next CAS will be sent to the new address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What other details will be included under a CAS? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apart from details of financial transactions, opening and closing unit balances in each folio, CAS will also reflect the email id registered, nominee registration status, mode of holding, KYC status, etc. In the interest of the security of your data certain sensitive information like registered bank account details, nominee name, PAN and contact details will not be included in CAS. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have updated different addresses across Mutual Funds. Where will the CAS be sent? </t>
+  </si>
+  <si>
+    <t>For all folios, which are KYC compliant, CAS will be sent to the address of the investor as used while filling up the KYC application form. However, for non KYC folios and all presumably have different addresses, they will get consolidated (basis being PAN exists in all folios). CAS will be sent to the address registered in the folio where the last financial transaction took place. We strongly urge you to update your PAN and KYC details in all folios in across mutual funds by approaching respective mutual funds or their Registrar and Transfer Agents (RTA). This will enable you to take the unique advantage of a CAS - a unified / single view of your entire Mutual Fund holdings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have provided my email to all MFs. Will I still get a physical CAS? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currently a physical CAS will be sent by post, even if an email id is registered in any or all folios. Very shortly, CAS will be sent via email to the email id registered in any of the folios. We strongly urge you to verify the email ids (registered in each folio) and update a single email id across all folios, for better convenience. </t>
+  </si>
+  <si>
+    <t>Will I get any individual statement from the AMC?</t>
+  </si>
+  <si>
+    <t>In addition to CAS, you will continue to receive account statements electronically after each financial transaction but within 5 working days in folios with registered email ID's. Where folios do not have a email registered, a monthly CAS will be sent. However, you are free to request for a statement whenever you wish to and we will dispatch the same to you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What if I find some of the folios missing in my CAS? </t>
+  </si>
+  <si>
+    <t>If you find some of your folios are not reflected in CAS, please check the following Whether the folio has any financial transaction, as CAS includes only the folios with financial transactions
+If yes, whether the PAN of all the unit holders has been updated in the folio?
+If no, you should get PAN of all unit holders updated in the folio/s for future inclusion in CAS.
+If PAN is already updated, you can check with the respective mutual fund about the discrepancy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What if there are no transactions in a folio for a long period? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit holders whose folios do not have a financial transaction in a half-year period ending September or March will be sent a CAS in the following month, detailing the holding at the end of such six month period. </t>
+  </si>
+  <si>
+    <t>What is Gold ETF?</t>
+  </si>
+  <si>
+    <t>A Gold ETF is an ETF whose assets are invested in gold bullion with the objective of generating returns that are in line with the performance of gold (and gold related instruments including derivatives - as and when permitted by SEBI) subject to tracking errors.</t>
+  </si>
+  <si>
+    <t>How do Gold ETFs differ from physical gold?</t>
+  </si>
+  <si>
+    <t>Unlike physical gold, Gold ETFs are held in demat / electronic form and can be traded on a stock exchange just like buying and selling stocks.</t>
+  </si>
+  <si>
+    <t>No (except for Authorised Participants and Large Investors). Delivery of the gold will be at the location of the Custodian within the jurisdiction of Mumbai.</t>
+  </si>
+  <si>
+    <t>What is HDFC Focused Equity Fund?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDFC Focused Equity Fund is a 1100 day close ended equity Scheme investing in eligible Securities as per Rajiv Gandhi Equity Savings Scheme. Investments in this Scheme shall be eligible for tax benefits under Section 80CCG of Income-tax Act, 1961 on complying with other relevant provisions. The scheme will be listed on the capital market segment of BSE and NSE. The Scheme offers two plans: Plan A and Plan B. Each plan shall be managed as a separate Portfolio. </t>
+  </si>
+  <si>
+    <t>How often is the NAV declared?</t>
+  </si>
+  <si>
+    <t>NAV is required to be disclosed by the mutual funds on a regular basis – on all business days or weekly – depending on the type of scheme. As per SEBI Regulations, the NAV of a scheme shall be calculated and published at least in two daily newspapers at intervals not exceeding one week. The NAVs are also available on the websites of mutual funds. All mutual funds are also required to put their NAVs on the website of Association of Mutual Funds in India (AMFI) www.amfiindia.com and thus the investors can access NAVs of all mutual funds at one place.</t>
+  </si>
+  <si>
+    <t>What are the factors that influence the performance of Mutual Funds?</t>
+  </si>
+  <si>
+    <t>The performances of Mutual funds are influenced by the performance of the stock market as well as the economy as a whole. Equity Funds are influenced to a large extent by the stock market. The stock market in turn is influenced by the performance of the companies as well as the economy as a whole. The performance of the sector funds depends to a large extent on the companies within that sector. Bond-funds are influenced by interest rates and credit quality. As interest rates rise, bond prices fall, and vice versa. Similarly, bond funds with higher credit ratings are less influenced by changes in the economy.</t>
+  </si>
+  <si>
+    <t>How do I have my name corrected in the folio?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name Change 
+Documents required for effecting Name change 
+Name change request can be accepted from an investor, in the below mentioned scenario(s) 
+Data Entry Correction
+Investor has changed his/her name
+Name change consequent to marriage
+Name change consequent to Divorce
+Minor Correction in the name filled in the application
+Major Correction in the name filled in the application
+Name change of a Minor
+1. Data Entry Correction
+If there is an error in updating of the name in our records as compared to the name filled in the application form same can be corrected by contacting the customer service or by providing a written request for the same.
+2. Investor has actually changed his/her name:
+Request letter from the investor.
+Notarized copy of Notification in Official Gazette of India
+Attestation from the bank manager of the Bank whose mandate has been provided at the time of original investment, confirming the Investors Name, Bank branch, Account number and Signature.
+Any official/legal document reflecting the name change viz.:
+Bank statement from the same bank of which bank mandate is on our record Passport.
+Attestation from School Principal confirming the name change and registered accordingly in the school records – This is for applications made by minor investors
+3. Change of name consequent to marriage:
+Investors request Letter
+Notarized copy of the marriage certificate
+OR
+Certified true copy of the state Gazette OR the original copy of the state gazette in which a declaration has been made to that effect.
+4. Change of name consequent to divorce:
+Investors request Letter
+Notarized copy of the divorce certificate
+Certified true copy of the state Gazette OR the original copy of the
+State gazette in which a declaration has been made to that effect.
+5. MINOR Error in the name: 
+There could be a minor spelling in the name like spelling mistake and when it appears to be a genuine case should be considered for name change after doing a KYC and subject to submission of the following documents: 
+Investor request letter
+Account statement
+Void cheque copy from the investor with his/her name clearly printed on the cheque. The name should match with the name change requested by the Investor.
+In absence of such a Cheque, an attestation from the bank manager of the Bank whose mandate has been provided at the time of original investment,confirming the Investors Name, Bank branch, Account number and Signature.
+Photo ID with Signature i.e. PAN Card (If not already available), MAPIN Card, Passport, etc.
+Indemnity Bond on a plain paper, duly signed by all the holders in that folio. (Attached herewith as (ANNEXURE 1 as below)
+6. Name change of a Minor
+In case of minor or major name correction and the investor being a minor, the documents will remain the same. The Indemnity bond will be submitted by the Parent/guardian.
+</t>
+  </si>
+  <si>
+    <t>Whats the process for lien marking/cancellation?</t>
+  </si>
+  <si>
+    <t>Lien registration procedure.
+Lien registration- Following documents are required
+Request letter from Investor clearly specifying the folio number, scheme, units and the person/ institution in whose favor the lien has to be marked.
+Consent letter from the person/institution in whose favor the lien has to be marked/
+The letters should clearly mention whether the future dividend (if any) will be in paid to the investor (normal lien) or will be paid to the person/bank/institution in whose favour the lien is marked (dynamic lien)
+constitution (in whose favor the lien is marked)
+Bank name and its account details from the financier on their lien marking request for Lien invocation process.
+Lien cancellation procedure.
+Consent letter from the person/institution in whose favor the lien has to be removed.
+Request letter from Investor clearly specifying the folio number, scheme, units and the person/ institution in whose favor the lien has to be removed (Not Mandatory)
+ASL of the constitution. (Required if the authorized signatory has changed )</t>
+  </si>
+  <si>
+    <t>What is the process of updating change of status from Minor to Major ?</t>
+  </si>
+  <si>
+    <t>Investments made on behalf of Minors
+1. Accounts of Minors:
+Name of the guardian along with relationship must be mentioned, if the investments are being made on behalf of a minor.
+Guardian of the minor should either be a natural guardian (i.e. father or mother) or a court appointed legal guardian.
+Joint holding is not allowed, if the first applicant is minor.
+If the first applicant is minor, date of birth along with photocopy of supporting documents as enumerated below shall be mandatory while opening the account on behalf of minor:
+Birth certificate of the minor, or
+School leaving certificate / Mark sheet issued by Higher Secondary
+Board of respective states, ICSE, CBSE etc., or
+Passport of the minor, or (d) Any other suitable proof evidencing the date of birth of the minor.
+In case of natural guardian, a document evidencing the relationship has to be submitted, if the same is not available as part of the documents submitted as proof of date of birth of the minor applicant.
+In case of court appointed legal guardian- a notorised photo copy of the court order should be submitted alongwith the application.
+2. Change in Tax Status (Minor Attaining Majority)
+Upon attaining majority, a minor has to write to the fund, giving his/her specimen signature duly authenticated by his/her banker, as well his/her new bank mandate, PAN details, KYC acknowledgement letter, in order to facilitate the Fund to update its records and permit the erstwhile minor to operate the account in his/her own right.
+List of standard documents to change account status from minor to major.
+Services Request form, duly filled and containing details like name of major, folio numbers, etc.
+New Bank mandate where account changed from minor to major.
+Signature attestation of the major by a manager of a scheduled bank / Bank Certificate
+Letter
+KYC acknowledgement of the major.
+In case of existing folios where date of birth may not be available, AMCs shall obtain this information and update their records at the earliest.</t>
+  </si>
+  <si>
+    <t>How to transfer units for investment with ICICI Prudential Mutual Fund (Transmission Process) ?</t>
+  </si>
+  <si>
+    <t>Which are the valid PDC locations for SIP?</t>
+  </si>
+  <si>
+    <t>SIP PDC locations.</t>
+  </si>
+  <si>
+    <t>What is a Flexible Investment Plan (FIP) and how does it work?</t>
+  </si>
+  <si>
+    <t>A Flexible Investment Plan (FIP) allows you to start an investment of a Frequency of your choice i.e. Daily, Weekly, Monthly, Quarterly, Half-Yearly or Yearly; on a date of your choice and for a period of your choice. The investment will get registered as Purchase with the AMC.</t>
+  </si>
+  <si>
+    <t>What is Systematic Withdrawal Plan (SWP) and how does it work?</t>
+  </si>
+  <si>
+    <t>A Systematic Withdrawal Plan (SWP) allows you to withdraw a fixed amount/ no. of units from an existing fund at certain fixed frequencies and dates defined by the AMC. The transaction will be processed within 2-4 days as per the scheme TAT and the redemption proceedings will be credited directly into your Registered Savings Bank Account.</t>
+  </si>
+  <si>
+    <t>Can I execute multiple transactions by authenticating once?</t>
+  </si>
+  <si>
+    <t>Yes, you can add multiple transactions in the Investment Cart and execute all the transactions by authenticating your grid card once.</t>
+  </si>
+  <si>
+    <t>Can I have multiple nominees for my funds?</t>
+  </si>
+  <si>
+    <t>Yes, you can enter up to 3 nominees for your funds present on the Investment Cart.</t>
+  </si>
+  <si>
+    <t>Can I transact on a holiday?</t>
+  </si>
+  <si>
+    <t>You can place a request even on a holiday, however, your request will be processed on the following business day and the NAV would be applicable as defined in the Mutual Fund's Offer Document.</t>
+  </si>
+  <si>
+    <t>Can I use nomination facility in the current account?</t>
+  </si>
+  <si>
+    <t>No. For entities, the nomination facility in mutual funds cannot be provided as per the regulatory guidelines.</t>
+  </si>
+  <si>
+    <t>What advantages do mutual funds have over individual securities?</t>
+  </si>
+  <si>
+    <t>The advantages of investing in a Mutual Fund are: 
+Professional Management
+Diversification
+Convenient Administration
+Return Potential
+Low Costs
+Liquidity
+Transparency
+Flexibility
+Choice of schemes
+Tax benefits
+Well regulated</t>
+  </si>
+  <si>
+    <t>What are the risks of a mutual fund?</t>
+  </si>
+  <si>
+    <t>There are several risks. The first is a credit risk - the companies in which the fund has invested might perform poorly, suffer mismanagement or otherwise meet with misfortune. Another big risk is that some economic, political or other development will cause the overall market to fall, dragging down with it the holdings of your particular fund. These are risks you would face investing in individual stocks as well; at least, mutual funds can offer diversification. 
+There are some risks unique to mutual funds. The fund management, for instance, may be doing things you don't know about. What you think is a conservative diversified equity fund might, in order to boost returns, invest heavily in a particular stock or sector, thereby exposing it to the risk of a downtrend in that particular stock.</t>
+  </si>
+  <si>
+    <t>What kind of income can I expect from a mutual fund?</t>
+  </si>
+  <si>
+    <t>Mutual funds can be conveniently used to meet various income needs. You can invest in funds whose only purpose is to deliver regular cash distributions. Several income/ debt oriented funds pay monthly, quarterly, half-yearly or annual dividends.
+Other funds, whose objective is growth of capital, generally pay much lower income distributions. Since dividends are now tax-free in the hands of investors, such schemes are becoming increasingly popular.</t>
+  </si>
+  <si>
+    <t>What are the tax implications of investing in a mutual Fund?</t>
+  </si>
+  <si>
+    <t>Dividend income from mutual funds is exempt from tax in the hands of the investor, however the mutual fund pays tax on such distributions if the scheme holds less than 50 per cent in equity. Capital gains tax applies on funds held for more than a year.</t>
+  </si>
+  <si>
+    <t>What is a dividend reinvestment plan?</t>
+  </si>
+  <si>
+    <t>A dividend reinvestment plan allows investors to reinvest their regular dividends in the mutual fund's units. In such a case, the mutual fund won't send in a regular dividend cheque. Instead, the money will be used to purchase additional units on your behalf.</t>
+  </si>
+  <si>
+    <t>Are there disadvantages to closed-end funds?</t>
+  </si>
+  <si>
+    <t>A closed-end fund is a unique type of mutual fund that usually offers its units to the public only once. After that, its units trade on an exchange much like an individual stock does. While investing in a closed-end fund has its advantages, there are disadvantages, as well. Because a closed-end fund's units basically work like common stock, they tend to be more susceptible to overall stock-market trends. That's fine if the market is heading higher, but bad news when the market slumps. Closed-end funds frequently trade well below their net asset value. In addition, a closed-end fund can use its capital to maintain dividend payments even when it's not earning enough to cover the payouts. This can lull you into a false sense of security, but when the dividend finally does get cut, the value of the fund could drop quickly, before you have time to sell. Also, buying and selling closed-end shares involves brokerage fees.</t>
+  </si>
+  <si>
+    <t>Benefits of Mutual Funds</t>
+  </si>
+  <si>
+    <t>There might be thousands of mutual funds but each has one single stated objective. A professional Fund Manager makes the investment decisions to achieve this objective and maximise returns on your money. Based on the nature and objective of the investment, your fund will invest in different proportions in cash, bonds, debt or equity. No matter how small your mutual fund investment is, it is spread across dozens of different instruments. As a mutual fund investor you will have the following advantages: 
+You're not putting all your eggs in one basket, i.e. in a single share or one loan product, you get the benefit of diversification and hence overall risk is lower. 
+For the same sum of money you have a stake in the fortunes of multiple companies.</t>
+  </si>
+  <si>
+    <t>Sale Price
+Is the price you pay when you invest in a scheme. Also called Offer Price. It may include a sales load.
+Repurchase Price
+Is the price at which a close-ended scheme repurchases its units and it may include a back-end load. This is also called Bid Price.
+Redemption Price
+Is the price at which open-ended schemes repurchase their units and close-ended schemes redeem their units on maturity. Such prices are NAV related.</t>
+  </si>
+  <si>
+    <t>Mutual Fund Price of a 'unit'?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the average annual return the fund has given in the last 10 years? 
+</t>
+  </si>
+  <si>
+    <t>Most of the mutual funds in the market have been operational for quite a few years now. It is advisable to enquire the mutual fund agent about the average annual return over the last 10 years than just in the last year only. Returns over the last 10 years cancel out extrinsic fluctuations and afford a better picture of what you can expect from the fund in future.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the equity-debt proportion of the fund? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mutual funds are of various types. Some funds invest all the mobilized monies in equities, while some entirely in debt instruments. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can I claim tax benefit? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mutual funds, especially ELSS (Equity Linked Saving Scheme), allow investors to deduct the amount invested for tax saving purposes. This is under the limit imposed by the Income Tax Section 80C. See if the fund you invested in is an ELSS and take advantage of tax savings. </t>
+  </si>
+  <si>
+    <t>What Is Growth Investing ?</t>
+  </si>
+  <si>
+    <t>A popular investment style whereby fund managers identify companies showing promise of above-average earnings. Stocks are held primarily for price appreciation as opposed to dividend income. Growth investors (or managers) are willing to pay a premium to acquire a stock if they feel it has the right prospects. Growth investing is an alternative to value investing. For instance, buying an over-valued software stock would be the part of a growth manager’s investment strategy.</t>
+  </si>
+  <si>
+    <t>What Is Value Investing?</t>
+  </si>
+  <si>
+    <t>As opposed to growth investors, value investors (or managers) focus on identifying under-priced stocks. Value investors look out for stocks selling at low prices, but which have the potential to give attractive returns in future.</t>
+  </si>
+  <si>
+    <t>What Is Passive Investing?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+This is the investment style espoused by index fund managers who simply invest by benchmarking their portfolio to a common stockmarket index like the BSE-30 or the SP CNX-50. The fund manager only invests in stocks in the index in exactly the same proportion. There is no attempt to beat the benchmark index, but to simply replicate it, and therefore it is called as passive investing. The index fund will never outperform the benchmark index, nor does it attempt to.</t>
+  </si>
+  <si>
+    <t>What Is The Portfolio Turnover Of A Fund Supposed To Mean?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+A measure of the amount of buying and selling activity in a fund.Turnover is defined as the lesser of securities sold or purchased during a year divided by the average of monthly net assets. A turnover of 100 percent, for example, implies positions are held on average for about a year.</t>
+  </si>
+  <si>
+    <t>How Are Mutual Funds Classified?</t>
+  </si>
+  <si>
+    <t>Mutual Funds can be classified into the following 3 broad categories:
+Portfolio classification
+Functional classification
+Geographical classification</t>
+  </si>
+  <si>
+    <t>How Are Mutual Funds Classified Functionally?</t>
+  </si>
+  <si>
+    <t>Functional classification of mutual funds is done on the following basis:
+Open ended scheme 
+Investors under this scheme are free to join the fund or withdraw from the fund at any time after an initial lock-in period. Such funds announce sale and repurchase prices from time to time. In an open-ended scheme, investors can resell units in the fund to the issuing mutual fund at the net asset value (NAV) of the units. This is because open-ended schemes are permitted to buy/sell their own units. For e.g. Alliance Capital 1995 Fund 
+Close-ended scheme 
+Unlike the open-ended schemes, close-ended schemes do not issue units for repurchase redemption on a periodic basis. Its units can be redeemed only on termination of the scheme, or through dealings in the secondary market. In such schemes, the period of the scheme is specified at the outset. They have a definite target amount for the funds and cannot sell more after initial offering. For eg. UTI Mastergain 1986</t>
+  </si>
+  <si>
+    <t>How Are Mutual Funds Classified Geographically?</t>
+  </si>
+  <si>
+    <t>Offshore funds can invest in securities of foreign companies, after requisite permission from RBI. The objective behind launching offshore funds is to attract foreign capital for investment in the country of the issuing company. These funds facilitate cross border fund flow, which is a direct route for getting foreign currency. From the investment point of view, Offshore funds open up domestic capital markets to the international investors and global portfolio investments.</t>
+  </si>
+  <si>
+    <t>Who Is A Custodian?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The custodian, an independent organisation, has the physical possession of all securities purchased by the mutual fund, and undertakes responsibility for its handling and safekeeping. For instance, the Stock Holding Corporation of India Ltd (SCHIL) is the custodian for most fund houses in the country.</t>
+  </si>
+  <si>
+    <t>What Is An Ex-dividend Date?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Normally, one business day after the record date. Investors purchasing unit on or after the ex-dividend date are not entitled to collect dividends or bonus units. The NAV falls by the amount of the dividend distributed and/or bonus issued. The terms ex-bonus and ex-dividend often are used synonymously.
+For instance, if the record date for dividend is October 15th, then investors who don’t have their names in the list of unitholders as on that day, will not receive dividend. This works very similar to dividend and bonus declarations in the case of stocks.</t>
+  </si>
+  <si>
+    <t>How Does One Calculate The Expense Ratio For A Fund?</t>
+  </si>
+  <si>
+    <t>The expense ratio for a fund is the annual expenses of a fund (at the end of the financial year), including the management fee, administrative costs, divided by the number of units on that day.</t>
+  </si>
+  <si>
+    <t>What Is A Daily Dividend Fund?</t>
+  </si>
+  <si>
+    <t>A fund (money-market or bond) that calculates dividends daily, paying out or reinvesting the same.</t>
+  </si>
+  <si>
+    <t>What Is An Asset Management Fee?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The fee charged by the asset management company (AMC) for portfolio management. The fee charged on an annual basis is calculated as percentage of net assets under management.</t>
+  </si>
+  <si>
+    <t>Is a mutual fund with low NAV better?</t>
+  </si>
+  <si>
+    <t>Should I invest in Infrastructure funds?</t>
+  </si>
+  <si>
+    <t>What are the types of risks?</t>
+  </si>
+  <si>
+    <t>Can the NAV of a debt fund fall?</t>
+  </si>
+  <si>
+    <t>A debt fund invests in fixed-income instruments. These include Commercial Paper, Certificates of Deposit, debentures and bonds. While the rate of interest on these instruments stays the same throughout their tenure, their market value keeps changing, depending on how the interest rates in the economy move.
+A debt fund's NAV is the market value of its portfolio holdings at a given point in time. As interest rates change, so do the market value of fixed-income instruments - and hence, the NAV of a debt fund. Thus it is a misnomer that the debt fund's NAV does not fall.</t>
+  </si>
+  <si>
+    <t>How are mutual funds different from Portfolio Management Schemes?</t>
+  </si>
+  <si>
+    <t>In Mutual Funds, the investments of investors are pooled to form a common investible corpus and the gain/loss to all investors during a given period are same for all investors. In the case of portfolio management schemes, the investments of a particular investor remain identifiable to him. Here the gain or loss of investors will be different from each other.</t>
+  </si>
+  <si>
+    <t>What affects the value of money ?</t>
+  </si>
+  <si>
+    <t>Inflation - As we all know money starts to lose its value as time goes by. This is due to a phenomenon called inflation which is a measure of the rate at which prices of goods and services increase. When positive, inflation indicates that money is losing its value. Simply put, the money you earn today will be worth less 10 years from now.
+Interest rate fluctuations - A drop in interest rates means a smaller return on your deposits, and if the interest rate is lower than the rate of inflation, your savings lose value. But for some investments, such as equities and bonds, the value of your investment may rise because of the drop in interest rates.
+International economic trends - What happens in other economies can affect the value of your money. Political circumstances, GDP growth, and stock-market indices in other countries can all have an impact on the buying power of your money.
+With so many factors involved, it is crucial that you have a financial plan to protect your future and to put your money where it generates reasonable returns to meet your needs.</t>
+  </si>
+  <si>
+    <t>How can I research and keep track of my investments ?</t>
+  </si>
+  <si>
+    <t>Stock prices and Mutual Fund prices are quoted in the newspapers and on the Internet. They are also available on websites of most Mutual Funds and research agencies. In order to maximise the money you invest, it is necessary to review your investment portfolio on a regular basis. You may want to re-look at your investments to account for changing goals, fresh investment avenues, changing market dynamics etc. It is possible that some investments you are holding are not performing to your expectations. If that is the case, you may consider revising your portfolio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the profile of the typical investor in this fund? </t>
+  </si>
+  <si>
+    <t>The fund caters to the profile of its investors, which can be anywhere from highly conservative to extremely aggressive. You need to know what kind of individual is likely to invest in this fund and determine whether your risk tolerance squares with that of the other investors</t>
+  </si>
+  <si>
+    <t>WHAT ARE THE RIGHTS AND RESPONSIBILITIES OF A MUTUAL FUND INVESTOR?</t>
+  </si>
+  <si>
+    <t>As a unit holder, you have the right to receive information on all the schemes you own. The following are your rights:Receiving responses to queries regarding the performance of the fund, its investment objective, the approximate allocation of funds, etc.After purchase of the units of a mutual fund scheme, you should receive a statement from the asset management company (AMC) clearly mentioning the number of units owned by you.You have the right to all relevant information about the AMC that has undertaken the responsibility of managing the assets of the mutual fund. It is the AMC’S responsibility to keep you updated on any developments or changes that can have a material bearing on your investments in mutual fund schemes of that AMC.In case of declaration of any dividend on your mutual fund scheme, you are entitled to receive the proceeds within 30 days from the date of declaration by the mutual fund failing which the fund will have to pay you interest @ 15%.​Investors of a mutual fund scheme also have the right to wind-up the scheme if 75 percent or more of them pass such a resolution. The AMC of a mutual fund can be terminated in case 75 percent of the total unit holders of that AMC vote for the same in a special meeting.</t>
+  </si>
+  <si>
+    <t>IF I HAVE ANY COMPLAINT OR GRIEVANCE RELATING TO MY MUTUAL FUND INVESTMENT, HOW SHOULD I GET IT RESOLVED?</t>
+  </si>
+  <si>
+    <t>You should approach the concerned mutual fund / Investor Service Centre of the mutual fund with your complaints. You can contact the local relationship manager at the branch office or contact the designated person whom you may approach in case of any query, complaints or grievances. Trustees of a mutual fund monitor the activities of the mutual fund. The names of the directors of AMC and trustees are also given in the offer documents and the mutual fund’s website. If the complaints remain unresolved, then you may approach Securities and Exchange Board of India (SEBI) directly for facilitating redressal of your complaints. On receipt of complaints, SEBI takes up the matter with the concerned mutual fund and follows up with it regularly.</t>
+  </si>
+  <si>
+    <t>WHAT IS SYSTEMATIC TRANSFER PLAN (STP)?</t>
+  </si>
+  <si>
+    <t>WHAT IS THE RIGHT TIME TO SELL OR EXIT A MUTUAL FUND INVESTMENT?</t>
+  </si>
+  <si>
+    <t>​ Investment and exit decisions are ideally linked to one’s financial goals. If the purpose for which money is invested is nearing, then it is time to think about selling the fund. Equity investments and long term debt investment need to be sold in a phased manner much in advance before the goal depending on the market situation. Short term debt funds and liquid funds can be sold just a few days or months in advance. Your mutual fund advisor can guide you on these issues.Some other situations in which an exit from the mutual fund can be justified is a breach of investment mandate of the fund; for example, if a large cap fund starts investment in small cap securities.Some other situations in which an exit from the mutual fund can be justified is a breach of investment mandate of the fund; for example, if a large cap fund starts investment in small cap securities.We all invest in funds to generate money and if the chosen mutual fund scheme fails to live up to these expectations, it is advisable to switch to a better prospect and exit from the current scheme.As human beings, even our investment goals change with time. Suppose you invested in large cap funds with an objective of long term capital creation; however, suddenly you decide to take a career break and now you require a steady source of income in the interim period. In these cases, you would need to re-align your portfolio and exit from a scheme which does not serve the purpose.</t>
+  </si>
+  <si>
+    <t>HOW DOES A MUTUAL FUND OPERATE?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A mutual fund makes its new schemes open to the public for investments at the time of launch of the scheme. In case of existing schemes, the mutual fund opens them to investors either during a specified time period at fixed intervals or on an ongoing basis. Each mutual fund scheme has a specific investment objective it has to adhere to while investing the money collected from investors. The investor is allotted units for his investment amount depending on the prevailing Mutual Funds NAV of the scheme.The value of each unit of the mutual fund scheme is calculated based on the current market price of all the assets held by the scheme. This price is called the Net Asset Value (NAV) of the scheme. The price of each unit during the 'New Fund Offer' (when the fund is first launched) is called its face value. After the NFO period, the price of the unit gets recalculated and investors need to purchase or sell units based on the prevailing NAV at any point of time. The total of assets held by the mutual fund at any point of time is called its Assets under Management (AUM). At launch, the AUM is equal to the corpus of funds collected from the investors. As time passes, this corpus value changes with profits/losses, new investments coming in, existing investors redeeming and dividend payouts. </t>
+  </si>
+  <si>
+    <t>What is the fund’s goal?</t>
+  </si>
+  <si>
+    <t>Does it fit the objectives of your portfolio? How long do you have to invest? What are your personal goals? Does it provide regular income? Does it work with your other investments? These are all important factors your chosen mutual fund(s) should align with to ensure you feel confident you’ve made the right investment decision.</t>
+  </si>
+  <si>
+    <t>Who manages the fund?</t>
+  </si>
+  <si>
+    <t>The portfolio manager is key to the success of a mutual fund. So it makes sense to know this person’s education and experience. Also don’t be shy about asking them questions. Do they run other funds? How successful have they been? What is their investment style? Has the fund’s management changed a lot over the years? High turnover can be a warning sign.</t>
+  </si>
+  <si>
+    <t>How can mutual fund investors redress their complaints?</t>
+  </si>
+  <si>
+    <t>What happens if mutual fund scheme is wound up</t>
+  </si>
+  <si>
+    <t>How to choose a mutual fund based on NAV</t>
+  </si>
+  <si>
+    <t>Difference between investing in a mutual fund and in an IPO</t>
+  </si>
+  <si>
+    <t>How to check where my mutual fund is investing</t>
+  </si>
+  <si>
+    <t>How investors are informed about the changes in mutual fund?</t>
+  </si>
+  <si>
+    <t>What is an assured return scheme?</t>
+  </si>
+  <si>
+    <t>Are the online investments in mutual funds subject to any charges or fees?</t>
+  </si>
+  <si>
+    <t>List of Mutual funds transaction types offered by kotaksecurities</t>
+  </si>
+  <si>
+    <t>What is KRA?</t>
+  </si>
+  <si>
+    <t>What is IPV?</t>
+  </si>
+  <si>
+    <t>What are the pre-requisites to invest in Mutual funds?</t>
+  </si>
+  <si>
+    <t>By what time will the funds be credited to my bank account?</t>
+  </si>
+  <si>
+    <t>How does an investor gain access to MF Utility?</t>
+  </si>
+  <si>
+    <t>Investors will have to get themselves a Common Account Number (CAN) by submitting the CAN Registration Form (CRF) at any of the nearest Point of Service (POS) of MF Utilities India Pvt Ltd (MFUI) or a Distributor / RIA signed-up with MFUI or a participating AMC Branch.</t>
+  </si>
+  <si>
+    <t>Will investors be able to have multiple Common Account Numbers?</t>
+  </si>
+  <si>
+    <t>Where an investor wants to have a change in the combination, a new CAN will be created. Common Account Number (CAN) is provided for a combination comprising of the following:-
+Number of Investors i.e. 1 or 2 or 3
+Order of holding i.e. A; A&amp;B; A,B&amp;C; B; B&amp;A; B,C&amp;A; C; C&amp;B; C,A&amp;B; and so on
+Mode of holding i.e. Single, Joint and Anyone or Survivor
+Social (Tax) Status i.e. Individual, Company, Non-Resident etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is a capital protection-oriented scheme? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can a mutual fund impose fresh load or increase the load beyond the level mentioned in 
+the offer documents? </t>
+  </si>
+  <si>
+    <t>Mutual funds cannot increase the exit load beyond the level mentioned in the offer document. Any 
+change  in  the  load will  be  applicable  only  to  prospective  investments  and  not  to  the  original 
+investments. In case of imposition of fresh loads or increase in existing loads, the mutual funds 
+are required to amend their offer documents so that the new investors are aware of loads at the 
+time of investments. As no entry load can be cha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can a mutual fund change the asset allocation while deploying funds of investors? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Considering the market trends, any prudent fund manager can change the asset allocation, i.e., 
+he can invest higher or lower percentage of the fund in equity or debt instruments compared to 
+what  is  disclosed  in  the  offer  document.  It  can  be  done  on  a  short  term  basis  on  defensive 
+considerations i.e. to protect the NAV. Hence, the fund managers are allowed certain flexibility in 
+altering  the asset allocation  considering  the  interest of  the  investors.  In case  the mutual  fund 
+wants to change the asset allocation on a permanent basis, they are required to inform the unit 
+holders and give them option to exit the scheme at prevailing NAV without any load. </t>
+  </si>
+  <si>
+    <t>How much can I earn in a mutual fund?</t>
+  </si>
+  <si>
+    <t>Is it wise to invest in a mutual fund?</t>
+  </si>
+  <si>
+    <t>What are the best mutual funds to invest in 2018?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which small cap mutual fund in India is worth investing in? </t>
+  </si>
+  <si>
+    <t>How are mutual funds taxed in India for FY 2017–2018?</t>
+  </si>
+  <si>
+    <t>Is it good to invest in SIP for short term (1 year)?</t>
+  </si>
+  <si>
+    <t>Which are the best tax saving funds to invest a lump sum?</t>
+  </si>
+  <si>
+    <t>Is it the right time to invest in ELSS schemes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should I invest in a ULIP or an SIP? </t>
+  </si>
+  <si>
+    <t>Which are the top ten mutual funds ?</t>
+  </si>
+  <si>
+    <t>What are the best mutual fund schemes in India through the SIP route?</t>
+  </si>
+  <si>
+    <t>How do you know if your MF portfolio is good?</t>
   </si>
 </sst>
 </file>
@@ -2220,14 +3137,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4FB93F-1696-4BBA-9FE0-8B1FD32D5E8F}">
   <dimension ref="A1:B681"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A297" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B306" sqref="B306"/>
+    <sheetView tabSelected="1" topLeftCell="A392" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A453" sqref="A453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="68.6640625" customWidth="1"/>
-    <col min="2" max="2" width="123" customWidth="1"/>
+    <col min="2" max="2" width="103.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2262,7 +3179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -2340,7 +3257,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="330" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="180" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
@@ -3686,7 +4603,7 @@
       </c>
       <c r="B196" s="3"/>
     </row>
-    <row r="197" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>329</v>
       </c>
@@ -4352,588 +5269,1100 @@
       </c>
       <c r="B307" s="3"/>
     </row>
-    <row r="308" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A308" s="2"/>
-      <c r="B308" s="3"/>
-    </row>
-    <row r="309" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A309" s="2"/>
-      <c r="B309" s="3"/>
-    </row>
-    <row r="310" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A310" s="2"/>
-      <c r="B310" s="3"/>
-    </row>
-    <row r="311" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A311" s="2"/>
-      <c r="B311" s="3"/>
-    </row>
-    <row r="312" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A312" s="2"/>
-      <c r="B312" s="3"/>
-    </row>
-    <row r="313" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A313" s="2"/>
-      <c r="B313" s="3"/>
-    </row>
-    <row r="314" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A314" s="2"/>
-      <c r="B314" s="3"/>
+    <row r="308" spans="1:2" ht="60" x14ac:dyDescent="0.3">
+      <c r="A308" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+      <c r="A309" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+      <c r="A310" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+      <c r="A311" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+      <c r="A312" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="75" x14ac:dyDescent="0.3">
+      <c r="A313" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+      <c r="A314" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="315" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A315" s="2"/>
-      <c r="B315" s="3"/>
+      <c r="A315" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="316" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A316" s="2"/>
-      <c r="B316" s="3"/>
-    </row>
-    <row r="317" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A317" s="2"/>
-      <c r="B317" s="3"/>
-    </row>
-    <row r="318" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A318" s="2"/>
-      <c r="B318" s="3"/>
-    </row>
-    <row r="319" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A319" s="2"/>
-      <c r="B319" s="3"/>
+      <c r="A316" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+      <c r="A317" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+      <c r="A318" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" ht="60" x14ac:dyDescent="0.3">
+      <c r="A319" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="320" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A320" s="2"/>
-      <c r="B320" s="3"/>
-    </row>
-    <row r="321" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A321" s="2"/>
-      <c r="B321" s="3"/>
+      <c r="A320" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+      <c r="A321" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="322" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A322" s="2"/>
-      <c r="B322" s="3"/>
+      <c r="A322" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="323" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A323" s="2"/>
-      <c r="B323" s="3"/>
-    </row>
-    <row r="324" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A324" s="2"/>
-      <c r="B324" s="3"/>
-    </row>
-    <row r="325" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A325" s="2"/>
-      <c r="B325" s="3"/>
-    </row>
-    <row r="326" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A326" s="2"/>
-      <c r="B326" s="3"/>
-    </row>
-    <row r="327" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A327" s="2"/>
-      <c r="B327" s="3"/>
-    </row>
-    <row r="328" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A328" s="2"/>
-      <c r="B328" s="3"/>
-    </row>
-    <row r="329" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A329" s="2"/>
-      <c r="B329" s="3"/>
+      <c r="A323" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+      <c r="A324" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+      <c r="A325" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+      <c r="A326" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" ht="165" x14ac:dyDescent="0.3">
+      <c r="A327" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+      <c r="A328" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" ht="75" x14ac:dyDescent="0.3">
+      <c r="A329" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="330" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A330" s="2"/>
-      <c r="B330" s="3"/>
-    </row>
-    <row r="331" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A331" s="2"/>
-      <c r="B331" s="3"/>
+      <c r="A330" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" ht="225" x14ac:dyDescent="0.3">
+      <c r="A331" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="332" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A332" s="2"/>
-      <c r="B332" s="3"/>
-    </row>
-    <row r="333" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A333" s="2"/>
-      <c r="B333" s="3"/>
-    </row>
-    <row r="334" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A334" s="2"/>
-      <c r="B334" s="3"/>
-    </row>
-    <row r="335" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A335" s="2"/>
-      <c r="B335" s="3"/>
-    </row>
-    <row r="336" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A336" s="2"/>
-      <c r="B336" s="3"/>
-    </row>
-    <row r="337" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A337" s="2"/>
-      <c r="B337" s="3"/>
-    </row>
-    <row r="338" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A338" s="2"/>
-      <c r="B338" s="3"/>
-    </row>
-    <row r="339" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A339" s="2"/>
-      <c r="B339" s="3"/>
-    </row>
-    <row r="340" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A340" s="2"/>
-      <c r="B340" s="3"/>
-    </row>
-    <row r="341" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A341" s="2"/>
-      <c r="B341" s="3"/>
+      <c r="A332" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+      <c r="A333" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" ht="60" x14ac:dyDescent="0.3">
+      <c r="A334" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" ht="60" x14ac:dyDescent="0.3">
+      <c r="A335" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+      <c r="A336" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+      <c r="A337" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" ht="165" x14ac:dyDescent="0.3">
+      <c r="A338" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" ht="75" x14ac:dyDescent="0.3">
+      <c r="A339" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" ht="75" x14ac:dyDescent="0.3">
+      <c r="A340" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" ht="90" x14ac:dyDescent="0.3">
+      <c r="A341" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="342" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A342" s="2"/>
-      <c r="B342" s="3"/>
-    </row>
-    <row r="343" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A343" s="2"/>
-      <c r="B343" s="3"/>
+      <c r="A342" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+      <c r="A343" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="344" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A344" s="2"/>
+      <c r="A344" s="2" t="s">
+        <v>510</v>
+      </c>
       <c r="B344" s="3"/>
     </row>
-    <row r="345" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A345" s="2"/>
-      <c r="B345" s="3"/>
-    </row>
-    <row r="346" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A346" s="2"/>
-      <c r="B346" s="3"/>
-    </row>
-    <row r="347" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A347" s="2"/>
-      <c r="B347" s="3"/>
+    <row r="345" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A345" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+      <c r="A346" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A347" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="348" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A348" s="2"/>
+      <c r="A348" s="2" t="s">
+        <v>517</v>
+      </c>
       <c r="B348" s="3"/>
     </row>
-    <row r="349" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A349" s="2"/>
-      <c r="B349" s="3"/>
-    </row>
-    <row r="350" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A350" s="2"/>
-      <c r="B350" s="3"/>
-    </row>
-    <row r="351" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A351" s="2"/>
-      <c r="B351" s="3"/>
-    </row>
-    <row r="352" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A352" s="2"/>
-      <c r="B352" s="3"/>
-    </row>
-    <row r="353" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A353" s="2"/>
-      <c r="B353" s="3"/>
-    </row>
-    <row r="354" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A354" s="2"/>
-      <c r="B354" s="3"/>
-    </row>
-    <row r="355" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A355" s="2"/>
-      <c r="B355" s="3"/>
-    </row>
-    <row r="356" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A356" s="2"/>
-      <c r="B356" s="3"/>
-    </row>
-    <row r="357" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A357" s="2"/>
-      <c r="B357" s="3"/>
+    <row r="349" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+      <c r="A349" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A350" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A351" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A352" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+      <c r="A353" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+      <c r="A354" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A355" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+      <c r="A356" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+      <c r="A357" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="358" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A358" s="2"/>
-      <c r="B358" s="3"/>
-    </row>
-    <row r="359" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A359" s="2"/>
-      <c r="B359" s="3"/>
-    </row>
-    <row r="360" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A360" s="2"/>
-      <c r="B360" s="3"/>
-    </row>
-    <row r="361" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A361" s="2"/>
-      <c r="B361" s="3"/>
-    </row>
-    <row r="362" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A362" s="2"/>
-      <c r="B362" s="3"/>
-    </row>
-    <row r="363" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A363" s="2"/>
-      <c r="B363" s="3"/>
-    </row>
-    <row r="364" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A364" s="2"/>
-      <c r="B364" s="3"/>
-    </row>
-    <row r="365" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A365" s="2"/>
-      <c r="B365" s="3"/>
-    </row>
-    <row r="366" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A366" s="2"/>
-      <c r="B366" s="3"/>
-    </row>
-    <row r="367" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A367" s="2"/>
-      <c r="B367" s="3"/>
-    </row>
-    <row r="368" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A368" s="2"/>
-      <c r="B368" s="3"/>
-    </row>
-    <row r="369" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A369" s="2"/>
-      <c r="B369" s="3"/>
-    </row>
-    <row r="370" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A370" s="2"/>
-      <c r="B370" s="3"/>
-    </row>
-    <row r="371" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A371" s="2"/>
-      <c r="B371" s="3"/>
-    </row>
-    <row r="372" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A372" s="2"/>
-      <c r="B372" s="3"/>
-    </row>
-    <row r="373" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A373" s="2"/>
-      <c r="B373" s="3"/>
-    </row>
-    <row r="374" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A374" s="2"/>
-      <c r="B374" s="3"/>
-    </row>
-    <row r="375" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A375" s="2"/>
+      <c r="A358" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" ht="60" x14ac:dyDescent="0.3">
+      <c r="A359" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" ht="60" x14ac:dyDescent="0.3">
+      <c r="A360" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" ht="90" x14ac:dyDescent="0.3">
+      <c r="A361" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+      <c r="A362" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" ht="60" x14ac:dyDescent="0.3">
+      <c r="A363" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" ht="75" x14ac:dyDescent="0.3">
+      <c r="A364" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+      <c r="A365" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+      <c r="A366" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+      <c r="A367" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+      <c r="A368" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" ht="60" x14ac:dyDescent="0.3">
+      <c r="A369" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" ht="75" x14ac:dyDescent="0.3">
+      <c r="A370" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" ht="90" x14ac:dyDescent="0.3">
+      <c r="A371" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A372" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" ht="285" x14ac:dyDescent="0.3">
+      <c r="A373" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A374" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A375" s="2" t="s">
+        <v>569</v>
+      </c>
       <c r="B375" s="3"/>
     </row>
     <row r="376" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A376" s="2"/>
-      <c r="B376" s="3"/>
-    </row>
-    <row r="377" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A377" s="2"/>
-      <c r="B377" s="3"/>
-    </row>
-    <row r="378" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A378" s="2"/>
-      <c r="B378" s="3"/>
-    </row>
-    <row r="379" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A379" s="2"/>
-      <c r="B379" s="3"/>
+      <c r="A376" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+      <c r="A377" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+      <c r="A378" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+      <c r="A379" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="380" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A380" s="2"/>
-      <c r="B380" s="3"/>
-    </row>
-    <row r="381" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A381" s="2"/>
-      <c r="B381" s="3"/>
+      <c r="A380" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+      <c r="A381" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="382" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A382" s="2"/>
-      <c r="B382" s="3"/>
-    </row>
-    <row r="383" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A383" s="2"/>
-      <c r="B383" s="3"/>
-    </row>
-    <row r="384" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A384" s="2"/>
-      <c r="B384" s="3"/>
-    </row>
-    <row r="385" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A385" s="2"/>
-      <c r="B385" s="3"/>
-    </row>
-    <row r="386" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A386" s="2"/>
-      <c r="B386" s="3"/>
-    </row>
-    <row r="387" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A387" s="2"/>
-      <c r="B387" s="3"/>
-    </row>
-    <row r="388" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A388" s="2"/>
-      <c r="B388" s="3"/>
-    </row>
-    <row r="389" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A389" s="2"/>
-      <c r="B389" s="3"/>
-    </row>
-    <row r="390" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A390" s="2"/>
-      <c r="B390" s="3"/>
-    </row>
-    <row r="391" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A391" s="2"/>
-      <c r="B391" s="3"/>
-    </row>
-    <row r="392" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A392" s="2"/>
-      <c r="B392" s="3"/>
-    </row>
-    <row r="393" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A393" s="2"/>
-      <c r="B393" s="3"/>
-    </row>
-    <row r="394" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A394" s="2"/>
-      <c r="B394" s="3"/>
-    </row>
-    <row r="395" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A395" s="2"/>
-      <c r="B395" s="3"/>
-    </row>
-    <row r="396" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A396" s="2"/>
-      <c r="B396" s="3"/>
-    </row>
-    <row r="397" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A397" s="2"/>
-      <c r="B397" s="3"/>
-    </row>
-    <row r="398" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A398" s="2"/>
-      <c r="B398" s="3"/>
-    </row>
-    <row r="399" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A399" s="2"/>
-      <c r="B399" s="3"/>
-    </row>
-    <row r="400" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A400" s="2"/>
-      <c r="B400" s="3"/>
-    </row>
-    <row r="401" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A401" s="2"/>
-      <c r="B401" s="3"/>
-    </row>
-    <row r="402" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A402" s="2"/>
-      <c r="B402" s="3"/>
-    </row>
-    <row r="403" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A403" s="2"/>
-      <c r="B403" s="3"/>
+      <c r="A382" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" ht="180" x14ac:dyDescent="0.3">
+      <c r="A383" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+      <c r="A384" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" ht="90" x14ac:dyDescent="0.3">
+      <c r="A385" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+      <c r="A386" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+      <c r="A387" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B387" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" ht="135" x14ac:dyDescent="0.3">
+      <c r="A388" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B388" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" ht="150" x14ac:dyDescent="0.3">
+      <c r="A389" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B389" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+      <c r="A390" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B390" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" ht="60" x14ac:dyDescent="0.3">
+      <c r="A391" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B391" s="3" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+      <c r="A392" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B392" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+      <c r="A393" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B393" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" ht="75" x14ac:dyDescent="0.3">
+      <c r="A394" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B394" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+      <c r="A395" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B395" s="3" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" ht="90" x14ac:dyDescent="0.3">
+      <c r="A396" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B396" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" ht="60" x14ac:dyDescent="0.3">
+      <c r="A397" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" ht="75" x14ac:dyDescent="0.3">
+      <c r="A398" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" ht="225" x14ac:dyDescent="0.3">
+      <c r="A399" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B399" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" ht="75" x14ac:dyDescent="0.3">
+      <c r="A400" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" ht="60" x14ac:dyDescent="0.3">
+      <c r="A401" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B401" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+      <c r="A402" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B402" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+      <c r="A403" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B403" s="3" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="404" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A404" s="2"/>
-      <c r="B404" s="3"/>
-    </row>
-    <row r="405" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A405" s="2"/>
-      <c r="B405" s="3"/>
+      <c r="A404" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B404" s="3" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+      <c r="A405" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B405" s="3" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="406" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A406" s="2"/>
+      <c r="A406" s="2" t="s">
+        <v>630</v>
+      </c>
       <c r="B406" s="3"/>
     </row>
     <row r="407" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A407" s="2"/>
+      <c r="A407" s="2" t="s">
+        <v>631</v>
+      </c>
       <c r="B407" s="3"/>
     </row>
     <row r="408" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A408" s="2"/>
+      <c r="A408" s="2" t="s">
+        <v>632</v>
+      </c>
       <c r="B408" s="3"/>
     </row>
-    <row r="409" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A409" s="2"/>
-      <c r="B409" s="3"/>
-    </row>
-    <row r="410" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A410" s="2"/>
-      <c r="B410" s="3"/>
-    </row>
-    <row r="411" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A411" s="2"/>
-      <c r="B411" s="3"/>
-    </row>
-    <row r="412" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A412" s="2"/>
-      <c r="B412" s="3"/>
-    </row>
-    <row r="413" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A413" s="2"/>
-      <c r="B413" s="3"/>
-    </row>
-    <row r="414" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A414" s="2"/>
-      <c r="B414" s="3"/>
-    </row>
-    <row r="415" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A415" s="2"/>
-      <c r="B415" s="3"/>
+    <row r="409" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+      <c r="A409" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B409" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" ht="60" x14ac:dyDescent="0.3">
+      <c r="A410" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B410" s="3" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" ht="210" x14ac:dyDescent="0.3">
+      <c r="A411" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B411" s="3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" ht="75" x14ac:dyDescent="0.3">
+      <c r="A412" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B412" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+      <c r="A413" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B413" s="3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" ht="180" x14ac:dyDescent="0.3">
+      <c r="A414" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B414" s="3" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+      <c r="A415" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B415" s="3" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="416" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A416" s="2"/>
+      <c r="A416" s="2" t="s">
+        <v>647</v>
+      </c>
       <c r="B416" s="3"/>
     </row>
-    <row r="417" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A417" s="2"/>
-      <c r="B417" s="3"/>
-    </row>
-    <row r="418" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A418" s="2"/>
-      <c r="B418" s="3"/>
-    </row>
-    <row r="419" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A419" s="2"/>
-      <c r="B419" s="3"/>
-    </row>
-    <row r="420" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A420" s="2"/>
-      <c r="B420" s="3"/>
+    <row r="417" spans="1:2" ht="195" x14ac:dyDescent="0.3">
+      <c r="A417" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B417" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" ht="180" x14ac:dyDescent="0.3">
+      <c r="A418" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+      <c r="A419" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B419" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" ht="60" x14ac:dyDescent="0.3">
+      <c r="A420" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="421" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A421" s="2"/>
+      <c r="A421" s="2" t="s">
+        <v>656</v>
+      </c>
       <c r="B421" s="3"/>
     </row>
     <row r="422" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A422" s="2"/>
+      <c r="A422" s="2" t="s">
+        <v>657</v>
+      </c>
       <c r="B422" s="3"/>
     </row>
     <row r="423" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A423" s="2"/>
+      <c r="A423" s="2" t="s">
+        <v>658</v>
+      </c>
       <c r="B423" s="3"/>
     </row>
     <row r="424" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A424" s="2"/>
+      <c r="A424" s="2" t="s">
+        <v>659</v>
+      </c>
       <c r="B424" s="3"/>
     </row>
     <row r="425" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A425" s="2"/>
+      <c r="A425" s="2" t="s">
+        <v>660</v>
+      </c>
       <c r="B425" s="3"/>
     </row>
     <row r="426" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A426" s="2"/>
+      <c r="A426" s="2" t="s">
+        <v>661</v>
+      </c>
       <c r="B426" s="3"/>
     </row>
     <row r="427" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A427" s="2"/>
+      <c r="A427" s="2" t="s">
+        <v>662</v>
+      </c>
       <c r="B427" s="3"/>
     </row>
     <row r="428" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A428" s="2"/>
+      <c r="A428" s="2" t="s">
+        <v>663</v>
+      </c>
       <c r="B428" s="3"/>
     </row>
     <row r="429" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A429" s="2"/>
+      <c r="A429" s="2" t="s">
+        <v>664</v>
+      </c>
       <c r="B429" s="3"/>
     </row>
     <row r="430" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A430" s="2"/>
+      <c r="A430" s="2" t="s">
+        <v>665</v>
+      </c>
       <c r="B430" s="3"/>
     </row>
     <row r="431" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A431" s="2"/>
+      <c r="A431" s="2" t="s">
+        <v>666</v>
+      </c>
       <c r="B431" s="3"/>
     </row>
     <row r="432" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A432" s="2"/>
+      <c r="A432" s="2" t="s">
+        <v>667</v>
+      </c>
       <c r="B432" s="3"/>
     </row>
     <row r="433" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A433" s="2"/>
+      <c r="A433" s="2" t="s">
+        <v>668</v>
+      </c>
       <c r="B433" s="3"/>
     </row>
-    <row r="434" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A434" s="2"/>
-      <c r="B434" s="3"/>
-    </row>
-    <row r="435" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A435" s="2"/>
-      <c r="B435" s="3"/>
+    <row r="434" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+      <c r="A434" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B434" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+      <c r="A435" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="436" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A436" s="2"/>
+      <c r="A436" s="2" t="s">
+        <v>673</v>
+      </c>
       <c r="B436" s="3"/>
     </row>
-    <row r="437" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A437" s="2"/>
-      <c r="B437" s="3"/>
-    </row>
-    <row r="438" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A438" s="2"/>
-      <c r="B438" s="3"/>
+    <row r="437" spans="1:2" ht="75" x14ac:dyDescent="0.3">
+      <c r="A437" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B437" s="3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+      <c r="A438" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B438" s="3" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="439" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A439" s="2"/>
+      <c r="A439" s="2" t="s">
+        <v>678</v>
+      </c>
       <c r="B439" s="3"/>
     </row>
     <row r="440" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A440" s="2"/>
+      <c r="A440" s="2" t="s">
+        <v>679</v>
+      </c>
       <c r="B440" s="3"/>
     </row>
     <row r="441" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A441" s="2"/>
+      <c r="A441" s="2" t="s">
+        <v>680</v>
+      </c>
       <c r="B441" s="3"/>
     </row>
     <row r="442" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A442" s="2"/>
+      <c r="A442" s="2" t="s">
+        <v>681</v>
+      </c>
       <c r="B442" s="3"/>
     </row>
     <row r="443" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A443" s="2"/>
+      <c r="A443" s="2" t="s">
+        <v>682</v>
+      </c>
       <c r="B443" s="3"/>
     </row>
     <row r="444" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A444" s="2"/>
+      <c r="A444" s="2" t="s">
+        <v>683</v>
+      </c>
       <c r="B444" s="3"/>
     </row>
     <row r="445" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A445" s="2"/>
+      <c r="A445" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="B445" s="3"/>
     </row>
     <row r="446" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A446" s="2"/>
+      <c r="A446" s="2" t="s">
+        <v>684</v>
+      </c>
       <c r="B446" s="3"/>
     </row>
     <row r="447" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A447" s="2"/>
+      <c r="A447" s="2" t="s">
+        <v>685</v>
+      </c>
       <c r="B447" s="3"/>
     </row>
     <row r="448" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A448" s="2"/>
+      <c r="A448" s="2" t="s">
+        <v>686</v>
+      </c>
       <c r="B448" s="3"/>
     </row>
     <row r="449" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A449" s="2"/>
+      <c r="A449" s="2" t="s">
+        <v>414</v>
+      </c>
       <c r="B449" s="3"/>
     </row>
     <row r="450" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A450" s="2"/>
+      <c r="A450" s="2" t="s">
+        <v>389</v>
+      </c>
       <c r="B450" s="3"/>
     </row>
     <row r="451" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A451" s="2"/>
+      <c r="A451" s="2" t="s">
+        <v>687</v>
+      </c>
       <c r="B451" s="3"/>
     </row>
     <row r="452" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A452" s="2"/>
+      <c r="A452" s="2" t="s">
+        <v>688</v>
+      </c>
       <c r="B452" s="3"/>
     </row>
     <row r="453" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A453" s="2"/>
+      <c r="A453" s="2" t="s">
+        <v>689</v>
+      </c>
       <c r="B453" s="3"/>
     </row>
     <row r="454" spans="1:2" ht="15" x14ac:dyDescent="0.3">

--- a/MF Faqs.xlsx
+++ b/MF Faqs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Education\Colleges\Internship\DCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72C2DC5-47BD-42E8-81EE-888FE94271A5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4383484-3121-48D6-8B79-431BA822B838}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5340" xr2:uid="{A1C71BCD-9E5F-46CF-A8B8-BDDE8D2BA834}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="688">
   <si>
     <t>A minimum amount of Rs 1000 is required for SIP insurance investment.</t>
   </si>
@@ -275,21 +275,6 @@
   </si>
   <si>
     <t>Do I need to pay anything to the distributor who sells me mutual fund schemes?</t>
-  </si>
-  <si>
-    <t>As stated above, no entry load can be charged for any mutual fund scheme. An investor can
-chose to pay a distributor based on the investor‟s assessment of various factors including the
-service rendered by the distributor. However, for investments made through a distributor,
-commission is paid directly by AMC to the distributor such that the total expense ratio for an
-investor is within the limits on expense ratio specified under regulation 52 of the SEBI (Mutual
-Funds) Regulations, 1996. Hence, the cost borne by investors remains within the limit
-prescribed under SEBI Regulations.
-Transaction Charge:
-Further, a transaction charge of INR 150 and INR 100 per subscription of INR 10,000 and above
-by a new and an existing investor, respectively, can be levied by distributor. This transaction
-charge can be levied only if a distributor has opted in to levy transaction charge for that type of
-mutual fund scheme. Further, the transaction charge, if any, is to be deducted by the AMC from
-the subscription amount and paid to the distributor; and the balance is to be invested.</t>
   </si>
   <si>
     <t>How does an investor know how much commission the distributor is earning and what is
@@ -651,11 +636,6 @@
   </si>
   <si>
     <t>Besides the NAV, are there any other parameters which can be compared across different funds of the same category?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- What are the Tax Saving Options?
- </t>
   </si>
   <si>
     <t xml:space="preserve"> What is Redemption Price?</t>
@@ -2552,9 +2532,6 @@
     <t>The expense ratio for a fund is the annual expenses of a fund (at the end of the financial year), including the management fee, administrative costs, divided by the number of units on that day.</t>
   </si>
   <si>
-    <t>What Is A Daily Dividend Fund?</t>
-  </si>
-  <si>
     <t>A fund (money-market or bond) that calculates dividends daily, paying out or reinvesting the same.</t>
   </si>
   <si>
@@ -2763,12 +2740,39 @@
   <si>
     <t>How do you know if your MF portfolio is good?</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>What are the Tax Saving Options?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ </t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2789,13 +2793,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2810,7 +2847,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2819,6 +2856,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3137,7 +3192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4FB93F-1696-4BBA-9FE0-8B1FD32D5E8F}">
   <dimension ref="A1:B681"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A392" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A437" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A453" sqref="A453"/>
     </sheetView>
   </sheetViews>
@@ -3187,7 +3242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="135" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -3195,7 +3250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -3203,7 +3258,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="90" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -3217,7 +3272,7 @@
       </c>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:2" ht="150" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="90" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -3249,7 +3304,7 @@
       </c>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:2" ht="330" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="180" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -3271,13 +3326,13 @@
       </c>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" ht="195" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="105" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
@@ -3285,7 +3340,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="195" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="105" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
@@ -3293,7 +3348,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="90" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>32</v>
       </c>
@@ -3301,7 +3356,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="270" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="150" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
@@ -3357,3011 +3412,3011 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="195" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="120" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="240" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" s="3"/>
     </row>
     <row r="32" spans="1:2" ht="105" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B33" s="3"/>
     </row>
     <row r="34" spans="1:2" ht="75" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="45" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="90" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="45" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="45" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="60" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="135" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="165" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="3" t="s">
+    </row>
+    <row r="43" spans="1:2" ht="90" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="90" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="120" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B44" s="3" t="s">
+    </row>
+    <row r="45" spans="1:2" ht="90" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="90" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="270" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="105" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="3" t="s">
+    </row>
+    <row r="48" spans="1:2" ht="75" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="75" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="135" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B49" s="3" t="s">
+    </row>
+    <row r="50" spans="1:2" ht="60" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="60" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="150" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="135" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="3" t="s">
+    </row>
+    <row r="54" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="45" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+      <c r="B54" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="55" spans="1:2" ht="45" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="225" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B56" s="3" t="s">
+    </row>
+    <row r="57" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="45" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
+      <c r="B57" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="225" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:2" ht="270" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="120" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="165" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B61" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="180" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="150" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B61" s="3" t="s">
+    <row r="63" spans="1:2" ht="90" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="150" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="75" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="45" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="135" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B65" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="60" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="105" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="45" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="45" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="30" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="120" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="75" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B71" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="225" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="60" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="225" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="60" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="360" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="90" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
+      <c r="B76" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="330" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="90" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="B77" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B78" s="3"/>
     </row>
     <row r="79" spans="1:2" ht="90" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="90" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B80" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="90" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" ht="75" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
+      <c r="B81" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="165" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="75" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
+      <c r="B82" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="150" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
+      <c r="B83" s="3"/>
+    </row>
+    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
+      <c r="B84" s="3"/>
+    </row>
+    <row r="85" spans="1:2" ht="135" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B83" s="3"/>
-    </row>
-    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B84" s="3"/>
-    </row>
-    <row r="85" spans="1:2" ht="120" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="B85" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="45" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="120" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B88" s="3"/>
     </row>
     <row r="89" spans="1:2" ht="45" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="75" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>163</v>
-      </c>
     </row>
     <row r="91" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
-        <v>164</v>
+      <c r="A91" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="B91" s="3"/>
     </row>
     <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B92" s="3"/>
     </row>
     <row r="93" spans="1:2" ht="60" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="75" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B95" s="3"/>
+    </row>
+    <row r="96" spans="1:2" ht="60" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B95" s="3"/>
-    </row>
-    <row r="96" spans="1:2" ht="45" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
+    </row>
+    <row r="97" spans="1:2" ht="60" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B97" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="45" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
+    <row r="98" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B98" s="3" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="105" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="60" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="60" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B101" s="3"/>
     </row>
     <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B102" s="3"/>
+    </row>
+    <row r="103" spans="1:2" ht="60" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="90" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="90" x14ac:dyDescent="0.3">
+      <c r="A105" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+      <c r="A106" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="75" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B108" s="3"/>
+    </row>
+    <row r="109" spans="1:2" ht="60" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B109" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="B102" s="3"/>
-    </row>
-    <row r="103" spans="1:2" ht="45" x14ac:dyDescent="0.3">
-      <c r="A103" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="75" x14ac:dyDescent="0.3">
-      <c r="A104" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="90" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="30" x14ac:dyDescent="0.3">
-      <c r="A106" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="60" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A108" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B108" s="3"/>
-    </row>
-    <row r="109" spans="1:2" ht="45" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B110" s="3"/>
+    </row>
+    <row r="111" spans="1:2" ht="75" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B110" s="3"/>
-    </row>
-    <row r="111" spans="1:2" ht="60" x14ac:dyDescent="0.3">
-      <c r="A111" s="2" t="s">
+    </row>
+    <row r="112" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+      <c r="A112" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B112" s="3" t="s">
         <v>198</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="30" x14ac:dyDescent="0.3">
-      <c r="A112" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B113" s="3"/>
     </row>
     <row r="114" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B114" s="3"/>
     </row>
     <row r="115" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B115" s="3"/>
+    </row>
+    <row r="116" spans="1:2" ht="90" x14ac:dyDescent="0.3">
+      <c r="A116" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B116" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B115" s="3"/>
-    </row>
-    <row r="116" spans="1:2" ht="75" x14ac:dyDescent="0.3">
-      <c r="A116" s="2" t="s">
+    </row>
+    <row r="117" spans="1:2" ht="90" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B117" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="75" x14ac:dyDescent="0.3">
-      <c r="A117" s="2" t="s">
+    <row r="118" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B118" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="6" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="90" x14ac:dyDescent="0.3">
-      <c r="A118" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="B119" s="3"/>
     </row>
     <row r="120" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B120" s="3"/>
     </row>
     <row r="121" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A121" s="2" t="s">
-        <v>212</v>
+      <c r="A121" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="B121" s="3"/>
     </row>
     <row r="122" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="B123" s="3"/>
     </row>
     <row r="124" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B124" s="3"/>
     </row>
     <row r="125" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B125" s="3"/>
     </row>
     <row r="126" spans="1:2" ht="45" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="225" x14ac:dyDescent="0.3">
+      <c r="A127" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B127" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="225" x14ac:dyDescent="0.3">
-      <c r="A127" s="2" t="s">
+    <row r="128" spans="1:2" ht="210" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B128" s="3" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="195" x14ac:dyDescent="0.3">
-      <c r="A128" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="318" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="210" x14ac:dyDescent="0.3">
+      <c r="A130" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B130" s="3" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="195" x14ac:dyDescent="0.3">
-      <c r="A130" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B131" s="3"/>
+    </row>
+    <row r="132" spans="1:2" ht="240" x14ac:dyDescent="0.3">
+      <c r="A132" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B131" s="3"/>
-    </row>
-    <row r="132" spans="1:2" ht="210" x14ac:dyDescent="0.3">
-      <c r="A132" s="2" t="s">
+    </row>
+    <row r="133" spans="1:2" ht="195" x14ac:dyDescent="0.3">
+      <c r="A133" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B133" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="165" x14ac:dyDescent="0.3">
-      <c r="A133" s="2" t="s">
+    <row r="134" spans="1:2" ht="255" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B134" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="210" x14ac:dyDescent="0.3">
-      <c r="A134" s="2" t="s">
+    <row r="135" spans="1:2" ht="255" x14ac:dyDescent="0.3">
+      <c r="A135" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B135" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="240" x14ac:dyDescent="0.3">
-      <c r="A135" s="2" t="s">
+    <row r="136" spans="1:2" ht="225" x14ac:dyDescent="0.3">
+      <c r="A136" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B136" s="3" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="210" x14ac:dyDescent="0.3">
-      <c r="A136" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B137" s="3"/>
     </row>
     <row r="138" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B138" s="3"/>
+    </row>
+    <row r="139" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A139" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B139" s="3"/>
+    </row>
+    <row r="140" spans="1:2" ht="195" x14ac:dyDescent="0.3">
+      <c r="A140" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B138" s="3"/>
-    </row>
-    <row r="139" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A139" s="2" t="s">
+      <c r="B140" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B139" s="3"/>
-    </row>
-    <row r="140" spans="1:2" ht="180" x14ac:dyDescent="0.3">
-      <c r="A140" s="2" t="s">
+    </row>
+    <row r="141" spans="1:2" ht="195" x14ac:dyDescent="0.3">
+      <c r="A141" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B141" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="195" x14ac:dyDescent="0.3">
-      <c r="A141" s="2" t="s">
+    <row r="142" spans="1:2" ht="150" x14ac:dyDescent="0.3">
+      <c r="A142" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B142" s="3" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="150" x14ac:dyDescent="0.3">
-      <c r="A142" s="2" t="s">
+    <row r="143" spans="1:2" ht="225" x14ac:dyDescent="0.3">
+      <c r="A143" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B143" s="3" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="210" x14ac:dyDescent="0.3">
-      <c r="A143" s="2" t="s">
+    <row r="144" spans="1:2" ht="195" x14ac:dyDescent="0.3">
+      <c r="A144" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B144" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B143" s="3" t="s">
+    </row>
+    <row r="145" spans="1:2" ht="210" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" ht="180" x14ac:dyDescent="0.3">
-      <c r="A144" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B144" s="3" t="s">
+      <c r="B145" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="180" x14ac:dyDescent="0.3">
-      <c r="A145" s="2" t="s">
+    <row r="146" spans="1:2" ht="240" x14ac:dyDescent="0.3">
+      <c r="A146" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B146" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="225" x14ac:dyDescent="0.3">
-      <c r="A146" s="2" t="s">
+    <row r="147" spans="1:2" ht="270" x14ac:dyDescent="0.3">
+      <c r="A147" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B147" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="225" x14ac:dyDescent="0.3">
-      <c r="A147" s="2" t="s">
+    <row r="148" spans="1:2" ht="210" x14ac:dyDescent="0.3">
+      <c r="A148" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B148" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="180" x14ac:dyDescent="0.3">
-      <c r="A148" s="2" t="s">
+    <row r="149" spans="1:2" ht="375" x14ac:dyDescent="0.3">
+      <c r="A149" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B149" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="330" x14ac:dyDescent="0.3">
-      <c r="A149" s="2" t="s">
+    <row r="150" spans="1:2" ht="150" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B150" s="3" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="135" x14ac:dyDescent="0.3">
-      <c r="A150" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="210" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="225" x14ac:dyDescent="0.3">
+      <c r="A152" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B152" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="180" x14ac:dyDescent="0.3">
-      <c r="A152" s="2" t="s">
+    <row r="153" spans="1:2" ht="240" x14ac:dyDescent="0.3">
+      <c r="A153" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B153" s="3" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="225" x14ac:dyDescent="0.3">
-      <c r="A153" s="2" t="s">
+    <row r="154" spans="1:2" ht="225" x14ac:dyDescent="0.3">
+      <c r="A154" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B154" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="195" x14ac:dyDescent="0.3">
-      <c r="A154" s="2" t="s">
+    <row r="155" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A155" s="5" t="s">
         <v>269</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A155" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="B155" s="3"/>
     </row>
     <row r="156" spans="1:2" ht="150" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B157" s="3"/>
+    </row>
+    <row r="158" spans="1:2" ht="135" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B158" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B157" s="3"/>
-    </row>
-    <row r="158" spans="1:2" ht="120" x14ac:dyDescent="0.3">
-      <c r="A158" s="2" t="s">
+    </row>
+    <row r="159" spans="1:2" ht="150" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B159" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="135" x14ac:dyDescent="0.3">
-      <c r="A159" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B160" s="3"/>
     </row>
     <row r="161" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B161" s="3"/>
     </row>
     <row r="162" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B162" s="3"/>
+    </row>
+    <row r="163" spans="1:2" ht="195" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B163" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B162" s="3"/>
-    </row>
-    <row r="163" spans="1:2" ht="150" x14ac:dyDescent="0.3">
-      <c r="A163" s="2" t="s">
+    </row>
+    <row r="164" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A164" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B164" s="3"/>
+    </row>
+    <row r="165" spans="1:2" ht="210" x14ac:dyDescent="0.3">
+      <c r="A165" s="5" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A164" s="2" t="s">
+      <c r="B165" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B164" s="3"/>
-    </row>
-    <row r="165" spans="1:2" ht="195" x14ac:dyDescent="0.3">
-      <c r="A165" s="2" t="s">
+    </row>
+    <row r="166" spans="1:2" ht="255" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B166" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="225" x14ac:dyDescent="0.3">
-      <c r="A166" s="2" t="s">
+    <row r="167" spans="1:2" ht="210" x14ac:dyDescent="0.3">
+      <c r="A167" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B167" s="3" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="165" x14ac:dyDescent="0.3">
-      <c r="A167" s="2" t="s">
+    <row r="168" spans="1:2" ht="180" x14ac:dyDescent="0.3">
+      <c r="A168" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B168" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="300" x14ac:dyDescent="0.3">
+      <c r="A169" s="5" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" ht="165" x14ac:dyDescent="0.3">
-      <c r="A168" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B168" s="3" t="s">
+      <c r="B169" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="210" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" ht="270" x14ac:dyDescent="0.3">
-      <c r="A169" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B169" s="3" t="s">
+      <c r="B170" s="3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="195" x14ac:dyDescent="0.3">
-      <c r="A170" s="2" t="s">
+    <row r="171" spans="1:2" ht="150" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="B171" s="3" t="s">
         <v>295</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" ht="135" x14ac:dyDescent="0.3">
-      <c r="A171" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B172" s="3"/>
+    </row>
+    <row r="173" spans="1:2" ht="195" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B173" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="B172" s="3"/>
-    </row>
-    <row r="173" spans="1:2" ht="180" x14ac:dyDescent="0.3">
-      <c r="A173" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B174" s="3"/>
+    </row>
+    <row r="175" spans="1:2" ht="225" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B175" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="B174" s="3"/>
-    </row>
-    <row r="175" spans="1:2" ht="210" x14ac:dyDescent="0.3">
-      <c r="A175" s="2" t="s">
+    </row>
+    <row r="176" spans="1:2" ht="60" x14ac:dyDescent="0.3">
+      <c r="A176" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B176" s="3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="60" x14ac:dyDescent="0.3">
-      <c r="A176" s="2" t="s">
+    <row r="177" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A177" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B177" s="3" t="s">
         <v>305</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A177" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="45" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+      <c r="A179" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B179" s="3" t="s">
         <v>309</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" ht="45" x14ac:dyDescent="0.3">
-      <c r="A179" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="75" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="60" x14ac:dyDescent="0.3">
+      <c r="A181" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B181" s="3" t="s">
         <v>313</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" ht="60" x14ac:dyDescent="0.3">
-      <c r="A181" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B182" s="3"/>
     </row>
     <row r="183" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B183" s="3"/>
     </row>
     <row r="184" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A184" s="2" t="s">
-        <v>316</v>
+      <c r="A184" s="6" t="s">
+        <v>314</v>
       </c>
       <c r="B184" s="3"/>
     </row>
     <row r="185" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B185" s="3"/>
     </row>
     <row r="186" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B186" s="3"/>
+    </row>
+    <row r="187" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A187" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B187" s="3"/>
+    </row>
+    <row r="188" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A188" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="B188" s="3"/>
+    </row>
+    <row r="189" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A189" s="6" t="s">
         <v>319</v>
-      </c>
-      <c r="B186" s="3"/>
-    </row>
-    <row r="187" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A187" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B187" s="3"/>
-    </row>
-    <row r="188" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A188" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="B188" s="3"/>
-    </row>
-    <row r="189" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A189" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="B189" s="3"/>
     </row>
     <row r="190" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B190" s="3"/>
     </row>
     <row r="191" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A191" s="2" t="s">
-        <v>323</v>
+      <c r="A191" s="6" t="s">
+        <v>321</v>
       </c>
       <c r="B191" s="3"/>
     </row>
     <row r="192" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B192" s="3"/>
     </row>
     <row r="193" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B193" s="3"/>
     </row>
     <row r="194" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B194" s="3"/>
     </row>
     <row r="195" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B195" s="3"/>
+    </row>
+    <row r="196" spans="1:2" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B196" s="3"/>
+    </row>
+    <row r="197" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B195" s="3"/>
-    </row>
-    <row r="196" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A196" s="2" t="s">
+      <c r="B197" s="3"/>
+    </row>
+    <row r="198" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A198" s="6" t="s">
         <v>328</v>
-      </c>
-      <c r="B196" s="3"/>
-    </row>
-    <row r="197" spans="1:2" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B197" s="3"/>
-    </row>
-    <row r="198" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A198" s="2" t="s">
-        <v>330</v>
       </c>
       <c r="B198" s="3"/>
     </row>
     <row r="199" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B199" s="3"/>
     </row>
     <row r="200" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A200" s="2" t="s">
-        <v>332</v>
+      <c r="A200" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="B200" s="3"/>
     </row>
     <row r="201" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B201" s="3"/>
     </row>
     <row r="202" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B202" s="3"/>
     </row>
     <row r="203" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B203" s="3"/>
     </row>
     <row r="204" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A204" s="2" t="s">
-        <v>322</v>
+      <c r="A204" s="6" t="s">
+        <v>320</v>
       </c>
       <c r="B204" s="3"/>
     </row>
     <row r="205" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A205" s="2" t="s">
-        <v>335</v>
+      <c r="A205" s="5" t="s">
+        <v>333</v>
       </c>
       <c r="B205" s="3"/>
     </row>
     <row r="206" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B206" s="3"/>
     </row>
     <row r="207" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A207" s="2" t="s">
-        <v>337</v>
+      <c r="A207" s="6" t="s">
+        <v>335</v>
       </c>
       <c r="B207" s="3"/>
     </row>
     <row r="208" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B208" s="3"/>
     </row>
     <row r="209" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A209" s="2" t="s">
-        <v>339</v>
+      <c r="A209" s="6" t="s">
+        <v>337</v>
       </c>
       <c r="B209" s="3"/>
     </row>
     <row r="210" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B210" s="3"/>
     </row>
     <row r="211" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A211" s="2" t="s">
-        <v>341</v>
+      <c r="A211" s="5" t="s">
+        <v>339</v>
       </c>
       <c r="B211" s="3"/>
     </row>
     <row r="212" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B212" s="3"/>
     </row>
     <row r="213" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B213" s="3"/>
     </row>
     <row r="214" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B214" s="3"/>
     </row>
     <row r="215" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B215" s="3"/>
     </row>
     <row r="216" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B216" s="3"/>
+    </row>
+    <row r="217" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A217" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B217" s="3"/>
+    </row>
+    <row r="218" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A218" s="6" t="s">
         <v>346</v>
-      </c>
-      <c r="B216" s="3"/>
-    </row>
-    <row r="217" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A217" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B217" s="3"/>
-    </row>
-    <row r="218" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A218" s="2" t="s">
-        <v>348</v>
       </c>
       <c r="B218" s="3"/>
     </row>
     <row r="219" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B219" s="3"/>
     </row>
     <row r="220" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A220" s="2" t="s">
-        <v>350</v>
+      <c r="A220" s="5" t="s">
+        <v>348</v>
       </c>
       <c r="B220" s="3"/>
     </row>
     <row r="221" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B221" s="3"/>
     </row>
     <row r="222" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B222" s="3"/>
     </row>
     <row r="223" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A223" s="2" t="s">
-        <v>353</v>
+      <c r="A223" s="6" t="s">
+        <v>351</v>
       </c>
       <c r="B223" s="3"/>
     </row>
     <row r="224" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B224" s="3"/>
     </row>
     <row r="225" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B225" s="3"/>
     </row>
     <row r="226" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B226" s="3"/>
     </row>
     <row r="227" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B227" s="3"/>
     </row>
     <row r="228" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B228" s="3"/>
     </row>
     <row r="229" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B229" s="3"/>
     </row>
     <row r="230" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B230" s="3"/>
     </row>
     <row r="231" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B231" s="3"/>
     </row>
     <row r="232" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A232" s="2" t="s">
-        <v>362</v>
+      <c r="A232" s="6" t="s">
+        <v>360</v>
       </c>
       <c r="B232" s="3"/>
     </row>
     <row r="233" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B233" s="3"/>
     </row>
     <row r="234" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B234" s="3"/>
     </row>
     <row r="235" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B235" s="3"/>
+    </row>
+    <row r="236" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A236" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B236" s="3"/>
+    </row>
+    <row r="237" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A237" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="B235" s="3"/>
-    </row>
-    <row r="236" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A236" s="2" t="s">
+      <c r="B237" s="3"/>
+    </row>
+    <row r="238" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A238" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="B236" s="3"/>
-    </row>
-    <row r="237" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A237" s="2" t="s">
+      <c r="B238" s="3"/>
+    </row>
+    <row r="239" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A239" s="5" t="s">
         <v>367</v>
-      </c>
-      <c r="B237" s="3"/>
-    </row>
-    <row r="238" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A238" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B238" s="3"/>
-    </row>
-    <row r="239" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A239" s="2" t="s">
-        <v>369</v>
       </c>
       <c r="B239" s="3"/>
     </row>
     <row r="240" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B240" s="3"/>
     </row>
     <row r="241" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A241" s="2" t="s">
-        <v>371</v>
+      <c r="A241" s="6" t="s">
+        <v>369</v>
       </c>
       <c r="B241" s="3"/>
     </row>
     <row r="242" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B242" s="3"/>
     </row>
     <row r="243" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A243" s="2" t="s">
-        <v>373</v>
+      <c r="A243" s="6" t="s">
+        <v>371</v>
       </c>
       <c r="B243" s="3"/>
     </row>
     <row r="244" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B244" s="3"/>
     </row>
     <row r="245" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B245" s="3"/>
     </row>
     <row r="246" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B246" s="3"/>
     </row>
     <row r="247" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B247" s="3"/>
     </row>
     <row r="248" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A248" s="2" t="s">
-        <v>378</v>
+      <c r="A248" s="6" t="s">
+        <v>376</v>
       </c>
       <c r="B248" s="3"/>
     </row>
     <row r="249" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B249" s="3"/>
     </row>
     <row r="250" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B250" s="3"/>
     </row>
     <row r="251" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B251" s="3"/>
     </row>
     <row r="252" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B252" s="3"/>
     </row>
     <row r="253" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B253" s="3"/>
     </row>
     <row r="254" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A254" s="2" t="s">
-        <v>384</v>
+      <c r="A254" s="6" t="s">
+        <v>382</v>
       </c>
       <c r="B254" s="3"/>
     </row>
     <row r="255" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B255" s="3"/>
     </row>
     <row r="256" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B256" s="3"/>
     </row>
     <row r="257" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A257" s="2" t="s">
-        <v>387</v>
+      <c r="A257" s="6" t="s">
+        <v>385</v>
       </c>
       <c r="B257" s="3"/>
     </row>
     <row r="258" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B258" s="3"/>
     </row>
     <row r="259" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B259" s="3"/>
     </row>
     <row r="260" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A260" s="2" t="s">
-        <v>389</v>
+      <c r="A260" s="6" t="s">
+        <v>387</v>
       </c>
       <c r="B260" s="3"/>
     </row>
     <row r="261" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B261" s="3"/>
     </row>
     <row r="262" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B262" s="3"/>
     </row>
     <row r="263" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B263" s="3"/>
     </row>
     <row r="264" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A264" s="2" t="s">
-        <v>393</v>
+      <c r="A264" s="6" t="s">
+        <v>391</v>
       </c>
       <c r="B264" s="3"/>
     </row>
     <row r="265" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B265" s="3"/>
     </row>
     <row r="266" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B266" s="3"/>
+    </row>
+    <row r="267" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A267" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="B267" s="3"/>
+    </row>
+    <row r="268" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A268" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="B266" s="3"/>
-    </row>
-    <row r="267" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A267" s="2" t="s">
+      <c r="B268" s="3"/>
+    </row>
+    <row r="269" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A269" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B267" s="3"/>
-    </row>
-    <row r="268" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A268" s="2" t="s">
+      <c r="B269" s="3"/>
+    </row>
+    <row r="270" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A270" s="6" t="s">
         <v>397</v>
-      </c>
-      <c r="B268" s="3"/>
-    </row>
-    <row r="269" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A269" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="B269" s="3"/>
-    </row>
-    <row r="270" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A270" s="2" t="s">
-        <v>399</v>
       </c>
       <c r="B270" s="3"/>
     </row>
     <row r="271" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B271" s="3"/>
     </row>
     <row r="272" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B272" s="3"/>
     </row>
     <row r="273" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B273" s="3"/>
     </row>
     <row r="274" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B274" s="3"/>
     </row>
     <row r="275" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B275" s="3"/>
     </row>
     <row r="276" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B276" s="3"/>
     </row>
     <row r="277" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B277" s="3"/>
     </row>
     <row r="278" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B278" s="3"/>
     </row>
     <row r="279" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B279" s="3"/>
     </row>
     <row r="280" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B280" s="3"/>
     </row>
     <row r="281" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B281" s="3"/>
     </row>
     <row r="282" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A282" s="2" t="s">
-        <v>411</v>
+      <c r="A282" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="B282" s="3"/>
     </row>
     <row r="283" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B283" s="3"/>
     </row>
     <row r="284" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B284" s="3"/>
     </row>
     <row r="285" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B285" s="3"/>
     </row>
     <row r="286" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A286" s="2" t="s">
-        <v>415</v>
+      <c r="A286" s="5" t="s">
+        <v>413</v>
       </c>
       <c r="B286" s="3"/>
     </row>
     <row r="287" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B287" s="3"/>
+    </row>
+    <row r="288" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A288" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B288" s="3"/>
+    </row>
+    <row r="289" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A289" s="5" t="s">
         <v>416</v>
-      </c>
-      <c r="B287" s="3"/>
-    </row>
-    <row r="288" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A288" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B288" s="3"/>
-    </row>
-    <row r="289" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A289" s="2" t="s">
-        <v>418</v>
       </c>
       <c r="B289" s="3"/>
     </row>
     <row r="290" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B290" s="3"/>
+    </row>
+    <row r="291" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A291" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="B291" s="3"/>
+    </row>
+    <row r="292" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A292" s="5" t="s">
         <v>419</v>
-      </c>
-      <c r="B290" s="3"/>
-    </row>
-    <row r="291" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A291" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B291" s="3"/>
-    </row>
-    <row r="292" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A292" s="2" t="s">
-        <v>421</v>
       </c>
       <c r="B292" s="3"/>
     </row>
     <row r="293" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B293" s="3"/>
     </row>
     <row r="294" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B294" s="3"/>
     </row>
     <row r="295" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B295" s="3"/>
     </row>
     <row r="296" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A296" s="2" t="s">
-        <v>425</v>
+      <c r="A296" s="5" t="s">
+        <v>423</v>
       </c>
       <c r="B296" s="3"/>
     </row>
     <row r="297" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B297" s="3"/>
+    </row>
+    <row r="298" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A298" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B298" s="3"/>
+    </row>
+    <row r="299" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A299" s="5" t="s">
         <v>426</v>
-      </c>
-      <c r="B297" s="3"/>
-    </row>
-    <row r="298" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A298" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="B298" s="3"/>
-    </row>
-    <row r="299" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A299" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="B299" s="3"/>
     </row>
     <row r="300" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B300" s="3"/>
     </row>
     <row r="301" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B301" s="3"/>
     </row>
     <row r="302" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B302" s="3"/>
     </row>
     <row r="303" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B303" s="3"/>
     </row>
     <row r="304" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A304" s="2" t="s">
-        <v>433</v>
+      <c r="A304" s="5" t="s">
+        <v>431</v>
       </c>
       <c r="B304" s="3"/>
     </row>
     <row r="305" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B305" s="3"/>
     </row>
     <row r="306" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B306" s="3"/>
     </row>
     <row r="307" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B307" s="3"/>
+    </row>
+    <row r="308" spans="1:2" ht="75" x14ac:dyDescent="0.3">
+      <c r="A308" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B307" s="3"/>
-    </row>
-    <row r="308" spans="1:2" ht="60" x14ac:dyDescent="0.3">
-      <c r="A308" s="2" t="s">
-        <v>438</v>
-      </c>
       <c r="B308" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="30" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+      <c r="A310" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B309" s="3" t="s">
+      <c r="B310" s="3" t="s">
         <v>441</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" ht="30" x14ac:dyDescent="0.3">
-      <c r="A310" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="B310" s="3" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="30" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="45" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="75" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="105" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+      <c r="A317" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="B316" s="3" t="s">
+      <c r="B317" s="3" t="s">
         <v>455</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" ht="30" x14ac:dyDescent="0.3">
-      <c r="A317" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="B317" s="3" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="30" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" ht="75" x14ac:dyDescent="0.3">
+      <c r="A319" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B318" s="3" t="s">
+      <c r="B319" s="3" t="s">
         <v>459</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" ht="60" x14ac:dyDescent="0.3">
-      <c r="A319" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="B319" s="3" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="30" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="45" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="120" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="30" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="165" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="120" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="75" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A330" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="B329" s="3" t="s">
+      <c r="B330" s="3" t="s">
         <v>481</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A330" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="B330" s="3" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="225" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="45" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="60" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="60" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="105" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="30" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="165" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="75" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="75" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" ht="90" x14ac:dyDescent="0.3">
+      <c r="A341" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="B340" s="3" t="s">
+      <c r="B341" s="3" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="341" spans="1:2" ht="90" x14ac:dyDescent="0.3">
-      <c r="A341" s="2" t="s">
+    <row r="342" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A342" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="B341" s="3" t="s">
+      <c r="B342" s="3" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="342" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A342" s="2" t="s">
+    <row r="343" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+      <c r="A343" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="B342" s="3" t="s">
+      <c r="B343" s="3" t="s">
         <v>507</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" ht="45" x14ac:dyDescent="0.3">
-      <c r="A343" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="B343" s="3" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B344" s="3"/>
     </row>
     <row r="345" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="45" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B348" s="3"/>
     </row>
     <row r="349" spans="1:2" ht="30" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A350" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="B349" s="3" t="s">
+      <c r="B350" s="3" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="350" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A350" s="2" t="s">
+    <row r="351" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A351" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="B350" s="3" t="s">
+      <c r="B351" s="3" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A351" s="2" t="s">
+    <row r="352" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A352" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="B351" s="3" t="s">
+      <c r="B352" s="3" t="s">
         <v>523</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A352" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="B352" s="3" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="45" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+      <c r="A354" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="B353" s="3" t="s">
+      <c r="B354" s="3" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="45" x14ac:dyDescent="0.3">
-      <c r="A354" s="2" t="s">
+    <row r="355" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A355" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="B354" s="3" t="s">
+      <c r="B355" s="3" t="s">
         <v>529</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A355" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="B355" s="3" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="30" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="45" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="60" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="60" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="90" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="45" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="60" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="75" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+      <c r="A365" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="B364" s="3" t="s">
+      <c r="B365" s="3" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="365" spans="1:2" ht="30" x14ac:dyDescent="0.3">
-      <c r="A365" s="2" t="s">
+    <row r="366" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+      <c r="A366" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="B365" s="3" t="s">
+      <c r="B366" s="3" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="45" x14ac:dyDescent="0.3">
-      <c r="A366" s="2" t="s">
+    <row r="367" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+      <c r="A367" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="B366" s="3" t="s">
+      <c r="B367" s="3" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="30" x14ac:dyDescent="0.3">
-      <c r="A367" s="2" t="s">
+    <row r="368" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+      <c r="A368" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="B368" s="3" t="s">
         <v>554</v>
-      </c>
-      <c r="B367" s="3" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" ht="30" x14ac:dyDescent="0.3">
-      <c r="A368" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="B368" s="3" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="60" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="75" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="90" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A372" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="B371" s="3" t="s">
+      <c r="B372" s="3" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A372" s="2" t="s">
+    <row r="373" spans="1:2" ht="285" x14ac:dyDescent="0.3">
+      <c r="A373" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="B372" s="3" t="s">
+      <c r="B373" s="3" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="373" spans="1:2" ht="285" x14ac:dyDescent="0.3">
-      <c r="A373" s="2" t="s">
+    <row r="374" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A374" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="B373" s="3" t="s">
+      <c r="B374" s="3" t="s">
         <v>566</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A374" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="B374" s="3" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B375" s="3"/>
     </row>
     <row r="376" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+      <c r="A377" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="B376" s="3" t="s">
+      <c r="B377" s="3" t="s">
         <v>571</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" ht="45" x14ac:dyDescent="0.3">
-      <c r="A377" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="B377" s="3" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="45" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+      <c r="A379" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="B378" s="3" t="s">
+      <c r="B379" s="3" t="s">
         <v>575</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" ht="30" x14ac:dyDescent="0.3">
-      <c r="A379" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="B379" s="3" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+      <c r="A381" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="B380" s="3" t="s">
+      <c r="B381" s="3" t="s">
         <v>579</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" ht="30" x14ac:dyDescent="0.3">
-      <c r="A381" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="B381" s="3" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="180" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="120" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="90" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="45" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="45" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="135" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="150" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="120" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="60" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B391" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+      <c r="A392" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="B391" s="3" t="s">
+      <c r="B392" s="3" t="s">
         <v>601</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" ht="30" x14ac:dyDescent="0.3">
-      <c r="A392" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="B392" s="3" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="45" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="75" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="30" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="90" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="60" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="75" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="225" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="75" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" ht="60" x14ac:dyDescent="0.3">
+      <c r="A401" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="B400" s="3" t="s">
+      <c r="B401" s="3" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="401" spans="1:2" ht="60" x14ac:dyDescent="0.3">
-      <c r="A401" s="2" t="s">
+    <row r="402" spans="1:2" ht="120" x14ac:dyDescent="0.3">
+      <c r="A402" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="B401" s="3" t="s">
+      <c r="B402" s="3" t="s">
         <v>621</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" ht="120" x14ac:dyDescent="0.3">
-      <c r="A402" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="B402" s="3" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="30" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="45" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B406" s="3"/>
     </row>
     <row r="407" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B407" s="3"/>
     </row>
     <row r="408" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A408" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B408" s="3"/>
     </row>
     <row r="409" spans="1:2" ht="105" x14ac:dyDescent="0.3">
       <c r="A409" s="2" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="410" spans="1:2" ht="60" x14ac:dyDescent="0.3">
       <c r="A410" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B410" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" ht="210" x14ac:dyDescent="0.3">
+      <c r="A411" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="B411" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="B410" s="3" t="s">
+    </row>
+    <row r="412" spans="1:2" ht="75" x14ac:dyDescent="0.3">
+      <c r="A412" s="5" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="411" spans="1:2" ht="210" x14ac:dyDescent="0.3">
-      <c r="A411" s="2" t="s">
+      <c r="B412" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="B411" s="3" t="s">
+    </row>
+    <row r="413" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+      <c r="A413" s="5" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="412" spans="1:2" ht="75" x14ac:dyDescent="0.3">
-      <c r="A412" s="2" t="s">
+      <c r="B413" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="B412" s="3" t="s">
+    </row>
+    <row r="414" spans="1:2" ht="180" x14ac:dyDescent="0.3">
+      <c r="A414" s="5" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="413" spans="1:2" ht="45" x14ac:dyDescent="0.3">
-      <c r="A413" s="2" t="s">
+      <c r="B414" s="3" t="s">
         <v>641</v>
-      </c>
-      <c r="B413" s="3" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" ht="180" x14ac:dyDescent="0.3">
-      <c r="A414" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="B414" s="3" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="105" x14ac:dyDescent="0.3">
       <c r="A415" s="2" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="416" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A416" s="2" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B416" s="3"/>
     </row>
     <row r="417" spans="1:2" ht="195" x14ac:dyDescent="0.3">
       <c r="A417" s="2" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="180" x14ac:dyDescent="0.3">
       <c r="A418" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+      <c r="A419" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="B419" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="B418" s="3" t="s">
+    </row>
+    <row r="420" spans="1:2" ht="60" x14ac:dyDescent="0.3">
+      <c r="A420" s="5" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="419" spans="1:2" ht="45" x14ac:dyDescent="0.3">
-      <c r="A419" s="2" t="s">
+      <c r="B420" s="3" t="s">
         <v>652</v>
-      </c>
-      <c r="B419" s="3" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" ht="60" x14ac:dyDescent="0.3">
-      <c r="A420" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="B420" s="3" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A421" s="2" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B421" s="3"/>
     </row>
     <row r="422" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A422" s="2" t="s">
-        <v>657</v>
+      <c r="A422" s="5" t="s">
+        <v>654</v>
       </c>
       <c r="B422" s="3"/>
     </row>
     <row r="423" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A423" s="2" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B423" s="3"/>
     </row>
     <row r="424" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A424" s="2" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B424" s="3"/>
     </row>
     <row r="425" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A425" s="2" t="s">
-        <v>660</v>
+      <c r="A425" s="5" t="s">
+        <v>657</v>
       </c>
       <c r="B425" s="3"/>
     </row>
     <row r="426" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A426" s="2" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B426" s="3"/>
     </row>
     <row r="427" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A427" s="2" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B427" s="3"/>
     </row>
     <row r="428" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A428" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B428" s="3"/>
     </row>
     <row r="429" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A429" s="2" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B429" s="3"/>
     </row>
     <row r="430" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A430" s="2" t="s">
-        <v>665</v>
+      <c r="A430" s="9" t="s">
+        <v>662</v>
       </c>
       <c r="B430" s="3"/>
     </row>
     <row r="431" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A431" s="2" t="s">
-        <v>666</v>
+      <c r="A431" s="9" t="s">
+        <v>663</v>
       </c>
       <c r="B431" s="3"/>
     </row>
     <row r="432" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A432" s="2" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B432" s="3"/>
     </row>
     <row r="433" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A433" s="2" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B433" s="3"/>
     </row>
     <row r="434" spans="1:2" ht="45" x14ac:dyDescent="0.3">
-      <c r="A434" s="2" t="s">
-        <v>669</v>
+      <c r="A434" s="5" t="s">
+        <v>666</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="105" x14ac:dyDescent="0.3">
       <c r="A435" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="436" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A436" s="2" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B436" s="3"/>
     </row>
     <row r="437" spans="1:2" ht="75" x14ac:dyDescent="0.3">
       <c r="A437" s="2" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="438" spans="1:2" ht="105" x14ac:dyDescent="0.3">
       <c r="A438" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A439" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B439" s="3"/>
     </row>
     <row r="440" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A440" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B440" s="3"/>
     </row>
     <row r="441" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A441" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B441" s="3"/>
     </row>
     <row r="442" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A442" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B442" s="3"/>
     </row>
     <row r="443" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A443" s="2" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B443" s="3"/>
     </row>
     <row r="444" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A444" s="2" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B444" s="3"/>
     </row>
     <row r="445" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A445" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B445" s="3"/>
     </row>
     <row r="446" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A446" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B446" s="3"/>
     </row>
     <row r="447" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A447" s="2" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B447" s="3"/>
     </row>
     <row r="448" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A448" s="2" t="s">
-        <v>686</v>
+      <c r="A448" s="5" t="s">
+        <v>683</v>
       </c>
       <c r="B448" s="3"/>
     </row>
     <row r="449" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A449" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B449" s="3"/>
     </row>
     <row r="450" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A450" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B450" s="3"/>
     </row>
     <row r="451" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A451" s="2" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B451" s="3"/>
     </row>
     <row r="452" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A452" s="2" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B452" s="3"/>
     </row>
     <row r="453" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A453" s="2" t="s">
-        <v>689</v>
+      <c r="A453" s="5" t="s">
+        <v>686</v>
       </c>
       <c r="B453" s="3"/>
     </row>
@@ -7279,5 +7334,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>